--- a/public/preprocessing/@prabowo.xlsx
+++ b/public/preprocessing/@prabowo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21371</v>
+        <v>31341</v>
       </c>
       <c r="C2" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">kita harus terus bersatu jangan sampai di adu domba mari kita isi kemerdekaan dengan karyakarya anak bangsa </t>
+          <t xml:space="preserve">terima kasih telah jauhjauh datang berkunjung ke padepokan garuda yaksa bersama bapak zainudin amali bapak agus </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['kita', 'harus', 'terus', 'bersatu', 'jangan', 'sampai', 'di', 'adu', 'domba', 'mari', 'kita', 'isi', 'kemerdekaan', 'dengan', 'karyakarya', 'anak', 'bangsa']</t>
+          <t>['terima', 'kasih', 'telah', 'jauhjauh', 'datang', 'berkunjung', 'ke', 'padepokan', 'garuda', 'yaksa', 'bersama', 'bapak', 'zainudin', 'amali', 'bapak', 'agus']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['terima', 'kasih', 'telah', 'jauhjauh', 'datang', 'berkunjung', 'ke', 'padepokan', 'garuda', 'yaksa', 'bersama', 'bapak', 'zainudin', 'amali', 'bapak', 'agus']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['bersatu', 'adu', 'domba', 'mari', 'isi', 'kemerdekaan', 'karyakarya', 'anak', 'bangsa']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['satu', 'adu', 'domba', 'mari', 'isi', 'merdeka', 'karyakarya', 'anak', 'bangsa']</t>
+          <t>['terima', 'kasih', 'jauhjauh', 'berkunjung', 'padepokan', 'garuda', 'yaksa', 'zainudin', 'amali', 'agus']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'jauhjauh', 'kunjung', 'padepokan', 'garuda', 'yaksa', 'zainudin', 'amal', 'agus']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21372</v>
+        <v>31342</v>
       </c>
       <c r="C3" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>kemerdekaan kita diraih dengan pengorbanan besar oleh para pendahulu kita perayaan kemerdekaan harus menjadi pengi</t>
+          <t xml:space="preserve">kita harus terus bersatu jangan sampai di adu domba mari kita isi kemerdekaan dengan karyakarya anak bangsa </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['kemerdekaan', 'kita', 'diraih', 'dengan', 'pengorbanan', 'besar', 'oleh', 'para', 'pendahulu', 'kita', 'perayaan', 'kemerdekaan', 'harus', 'menjadi', 'pengi']</t>
+          <t>['kita', 'harus', 'terus', 'bersatu', 'jangan', 'sampai', 'di', 'adu', 'domba', 'mari', 'kita', 'isi', 'kemerdekaan', 'dengan', 'karyakarya', 'anak', 'bangsa']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['kita', 'harus', 'terus', 'bersatu', 'jangan', 'sampai', 'di', 'adu', 'domba', 'mari', 'kita', 'isi', 'kemerdekaan', 'dengan', 'karyakarya', 'anak', 'bangsa']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['kemerdekaan', 'diraih', 'pengorbanan', 'pendahulu', 'perayaan', 'kemerdekaan', 'pengi']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['merdeka', 'raih', 'korban', 'dahulu', 'raya', 'merdeka', 'pengi']</t>
+          <t>['bersatu', 'adu', 'domba', 'mari', 'isi', 'kemerdekaan', 'karyakarya', 'anak', 'bangsa']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['satu', 'adu', 'domba', 'mari', 'isi', 'merdeka', 'karyakarya', 'anak', 'bangsa']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21373</v>
+        <v>31343</v>
       </c>
       <c r="C4" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>persatuan harus menjadi kekuatan utama kita sebagai bangsa agar dapat terwujud citacita kemerdekaan republik indon</t>
+          <t>kemerdekaan kita diraih dengan pengorbanan besar oleh para pendahulu kita perayaan kemerdekaan harus menjadi pengi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['persatuan', 'harus', 'menjadi', 'kekuatan', 'utama', 'kita', 'sebagai', 'bangsa', 'agar', 'dapat', 'terwujud', 'citacita', 'kemerdekaan', 'republik', 'indon']</t>
+          <t>['kemerdekaan', 'kita', 'diraih', 'dengan', 'pengorbanan', 'besar', 'oleh', 'para', 'pendahulu', 'kita', 'perayaan', 'kemerdekaan', 'harus', 'menjadi', 'pengi']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['kemerdekaan', 'kita', 'diraih', 'dengan', 'pengorbanan', 'besar', 'oleh', 'para', 'pendahulu', 'kita', 'perayaan', 'kemerdekaan', 'harus', 'menjadi', 'pengi']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['persatuan', 'kekuatan', 'utama', 'bangsa', 'terwujud', 'citacita', 'kemerdekaan', 'republik', 'indon']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['satu', 'kuat', 'utama', 'bangsa', 'wujud', 'citacita', 'merdeka', 'republik', 'indon']</t>
+          <t>['kemerdekaan', 'diraih', 'pengorbanan', 'pendahulu', 'perayaan', 'kemerdekaan', 'pengi']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['merdeka', 'raih', 'korban', 'dahulu', 'raya', 'merdeka', 'pengi']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21374</v>
+        <v>31344</v>
       </c>
       <c r="C5" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">perjuanganku lebih mudah karena melawan penjajah namun perjuangan kalian akan lebih sulit karena melawan bangsa </t>
+          <t>persatuan harus menjadi kekuatan utama kita sebagai bangsa agar dapat terwujud citacita kemerdekaan republik indon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['perjuanganku', 'lebih', 'mudah', 'karena', 'melawan', 'penjajah', 'namun', 'perjuangan', 'kalian', 'akan', 'lebih', 'sulit', 'karena', 'melawan', 'bangsa']</t>
+          <t>['persatuan', 'harus', 'menjadi', 'kekuatan', 'utama', 'kita', 'sebagai', 'bangsa', 'agar', 'dapat', 'terwujud', 'citacita', 'kemerdekaan', 'republik', 'indon']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
+          <t>['persatuan', 'harus', 'menjadi', 'kekuatan', 'utama', 'kita', 'sebagai', 'bangsa', 'agar', 'dapat', 'terwujud', 'citacita', 'kemerdekaan', 'republik', 'indon']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['perjuanganku', 'mudah', 'melawan', 'penjajah', 'perjuangan', 'sulit', 'melawan', 'bangsa']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['juang', 'mudah', 'lawan', 'jajah', 'juang', 'sulit', 'lawan', 'bangsa']</t>
+          <t>['persatuan', 'kekuatan', 'utama', 'bangsa', 'terwujud', 'citacita', 'kemerdekaan', 'republik', 'indon']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['satu', 'kuat', 'utama', 'bangsa', 'wujud', 'citacita', 'merdeka', 'republik', 'indon']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21375</v>
+        <v>31345</v>
       </c>
       <c r="C6" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">assalamualaikum wr wb selamat merayakan hari raya idul adha dzulhijah  semoga kita bisa meneladani </t>
+          <t xml:space="preserve">perjuanganku lebih mudah karena melawan penjajah namun perjuangan kalian akan lebih sulit karena melawan bangsa </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'wr', 'wb', 'selamat', 'merayakan', 'hari', 'raya', 'idul', 'adha', 'dzulhijah', 'semoga', 'kita', 'bisa', 'meneladani']</t>
+          <t>['perjuanganku', 'lebih', 'mudah', 'karena', 'melawan', 'penjajah', 'namun', 'perjuangan', 'kalian', 'akan', 'lebih', 'sulit', 'karena', 'melawan', 'bangsa']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['perjuanganku', 'lebih', 'mudah', 'karena', 'melawan', 'penjajah', 'namun', 'perjuangan', 'kalian', 'akan', 'lebih', 'sulit', 'karena', 'melawan', 'bangsa']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'wr', 'wb', 'selamat', 'merayakan', 'raya', 'idul', 'adha', 'dzulhijah', 'semoga', 'meneladani']</t>
+          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'wr', 'wb', 'selamat', 'raya', 'raya', 'idul', 'adha', 'dzulhijah', 'moga', 'teladan']</t>
+          <t>['perjuanganku', 'mudah', 'melawan', 'penjajah', 'perjuangan', 'sulit', 'melawan', 'bangsa']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['juang', 'mudah', 'lawan', 'jajah', 'juang', 'sulit', 'lawan', 'bangsa']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21376</v>
+        <v>31346</v>
       </c>
       <c r="C7" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>kementerian pertahanan akan terus mendukung upaya peningkatan produksi alutsista dalam negeri serta mendukung prog</t>
+          <t xml:space="preserve">assalamualaikum wr wb selamat merayakan hari raya idul adha dzulhijah  semoga kita bisa meneladani </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['kementerian', 'pertahanan', 'akan', 'terus', 'mendukung', 'upaya', 'peningkatan', 'produksi', 'alutsista', 'dalam', 'negeri', 'serta', 'mendukung', 'prog']</t>
+          <t>['assalamualaikum', 'wr', 'wb', 'selamat', 'merayakan', 'hari', 'raya', 'idul', 'adha', 'dzulhijah', 'semoga', 'kita', 'bisa', 'meneladani']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['assalamualaikum', 'wr', 'wb', 'selamat', 'merayakan', 'hari', 'raya', 'idul', 'adha', 'dzulhijah', 'semoga', 'kita', 'bisa', 'meneladani']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['kementerian', 'pertahanan', 'mendukung', 'upaya', 'peningkatan', 'produksi', 'alutsista', 'negeri', 'mendukung', 'prog']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['menteri', 'tahan', 'dukung', 'upaya', 'tingkat', 'produksi', 'alutsista', 'negeri', 'dukung', 'prog']</t>
+          <t>['assalamualaikum', 'wr', 'wb', 'selamat', 'merayakan', 'raya', 'idul', 'adha', 'dzulhijah', 'semoga', 'meneladani']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'wr', 'wb', 'selamat', 'raya', 'raya', 'idul', 'adha', 'dzulhijah', 'moga', 'teladan']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21377</v>
+        <v>31347</v>
       </c>
       <c r="C8" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>pada sore hari ini saya dan tim dari pt pindad mencoba kendaraan rantis  yang kami beri nama maung</t>
+          <t>kementerian pertahanan akan terus mendukung upaya peningkatan produksi alutsista dalam negeri serta mendukung prog</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['pada', 'sore', 'hari', 'ini', 'saya', 'dan', 'tim', 'dari', 'pt', 'pindad', 'mencoba', 'kendaraan', 'rantis', 'yang', 'kami', 'beri', 'nama', 'maung']</t>
+          <t>['kementerian', 'pertahanan', 'akan', 'terus', 'mendukung', 'upaya', 'peningkatan', 'produksi', 'alutsista', 'dalam', 'negeri', 'serta', 'mendukung', 'prog']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['kementerian', 'pertahanan', 'akan', 'terus', 'mendukung', 'upaya', 'peningkatan', 'produksi', 'alat, utama, sistem, pertahanan', 'dalam', 'negeri', 'serta', 'mendukung', 'program']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['sore', 'tim', 'pt', 'pindad', 'mencoba', 'kendaraan', 'rantis', 'nama', 'maung']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['sore', 'tim', 'pt', 'pindad', 'coba', 'kendara', 'rantis', 'nama', 'maung']</t>
+          <t>['kementerian', 'pertahanan', 'mendukung', 'upaya', 'peningkatan', 'produksi', 'alat, utama, sistem, pertahanan', 'negeri', 'mendukung', 'program']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['menteri', 'tahan', 'dukung', 'upaya', 'tingkat', 'produksi', 'alat utama sistem tahan', 'negeri', 'dukung', 'program']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21378</v>
+        <v>31348</v>
       </c>
       <c r="C9" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>perjuangan buruh melalui parlemen beberapa anggota dewan partai gerindra berasal dari kalangan buruh semoga allah</t>
+          <t>pada sore hari ini saya dan tim dari pt pindad mencoba kendaraan rantis  yang kami beri nama maung</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['perjuangan', 'buruh', 'melalui', 'parlemen', 'beberapa', 'anggota', 'dewan', 'partai', 'gerindra', 'berasal', 'dari', 'kalangan', 'buruh', 'semoga', 'allah']</t>
+          <t>['pada', 'sore', 'hari', 'ini', 'saya', 'dan', 'tim', 'dari', 'pt', 'pindad', 'mencoba', 'kendaraan', 'rantis', 'yang', 'kami', 'beri', 'nama', 'maung']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['pada', 'sore', 'hari', 'ini', 'saya', 'dan', 'tim', 'dari', 'pt', 'pindad', 'mencoba', 'kendaraan', 'kendaraan, taktis', 'yang', 'kami', 'beri', 'nama', 'maung']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['perjuangan', 'buruh', 'parlemen', 'anggota', 'dewan', 'partai', 'gerindra', 'berasal', 'kalangan', 'buruh', 'semoga', 'allah']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['juang', 'buruh', 'parlemen', 'anggota', 'dewan', 'partai', 'gerindra', 'asal', 'kalang', 'buruh', 'moga', 'allah']</t>
+          <t>['sore', 'tim', 'pt', 'pindad', 'mencoba', 'kendaraan', 'kendaraan, taktis', 'nama', 'maung']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['sore', 'tim', 'pt', 'pindad', 'coba', 'kendara', 'kendara taktis', 'nama', 'maung']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21379</v>
+        <v>31349</v>
       </c>
       <c r="C10" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>pandemik corona sangat berdampak kepada kehidupan ekonomi para buruh tapi saya yakin temanteman buruh akan ku</t>
+          <t>perjuangan buruh melalui parlemen beberapa anggota dewan partai gerindra berasal dari kalangan buruh semoga allah</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['pandemik', 'corona', 'sangat', 'berdampak', 'kepada', 'kehidupan', 'ekonomi', 'para', 'buruh', 'tapi', 'saya', 'yakin', 'temanteman', 'buruh', 'akan', 'ku']</t>
+          <t>['perjuangan', 'buruh', 'melalui', 'parlemen', 'beberapa', 'anggota', 'dewan', 'partai', 'gerindra', 'berasal', 'dari', 'kalangan', 'buruh', 'semoga', 'allah']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['perjuangan', 'buruh', 'melalui', 'parlemen', 'beberapa', 'anggota', 'dewan', 'partai', 'gerindra', 'berasal', 'dari', 'kalangan', 'buruh', 'semoga', 'allah']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['pandemik', 'corona', 'berdampak', 'kehidupan', 'ekonomi', 'buruh', 'temanteman', 'buruh', 'ku']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['pandemik', 'corona', 'dampak', 'hidup', 'ekonomi', 'buruh', 'temanteman', 'buruh', 'ku']</t>
+          <t>['perjuangan', 'buruh', 'parlemen', 'anggota', 'dewan', 'partai', 'gerindra', 'berasal', 'kalangan', 'buruh', 'semoga', 'allah']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['juang', 'buruh', 'parlemen', 'anggota', 'dewan', 'partai', 'gerindra', 'asal', 'kalang', 'buruh', 'moga', 'allah']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21380</v>
+        <v>31350</v>
       </c>
       <c r="C11" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">sejarah panjang perjuangan buruh terus berlangsung tanpa kenal menyerah perjuangan untuk mendapatkan penghidupan </t>
+          <t>pandemik corona sangat berdampak kepada kehidupan ekonomi para buruh tapi saya yakin temanteman buruh akan ku</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['sejarah', 'panjang', 'perjuangan', 'buruh', 'terus', 'berlangsung', 'tanpa', 'kenal', 'menyerah', 'perjuangan', 'untuk', 'mendapatkan', 'penghidupan']</t>
+          <t>['pandemik', 'corona', 'sangat', 'berdampak', 'kepada', 'kehidupan', 'ekonomi', 'para', 'buruh', 'tapi', 'saya', 'yakin', 'temanteman', 'buruh', 'akan', 'ku']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['pandemik', 'corona', 'sangat', 'berdampak', 'kepada', 'kehidupan', 'ekonomi', 'para', 'buruh', 'tapi', 'saya', 'yakin', 'temanteman', 'buruh', 'akan', 'ku']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['sejarah', 'perjuangan', 'buruh', 'kenal', 'menyerah', 'perjuangan', 'penghidupan']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['sejarah', 'juang', 'buruh', 'kenal', 'serah', 'juang', 'hidup']</t>
+          <t>['pandemik', 'corona', 'berdampak', 'kehidupan', 'ekonomi', 'buruh', 'temanteman', 'buruh', 'ku']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['pandemik', 'corona', 'dampak', 'hidup', 'ekonomi', 'buruh', 'temanteman', 'buruh', 'ku']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21381</v>
+        <v>31351</v>
       </c>
       <c r="C12" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>selamat menunaikan ibadah puasa ramadan bagi umat muslim mohon maaf lahir dan batin</t>
+          <t xml:space="preserve">sejarah panjang perjuangan buruh terus berlangsung tanpa kenal menyerah perjuangan untuk mendapatkan penghidupan </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['selamat', 'menunaikan', 'ibadah', 'puasa', 'ramadan', 'bagi', 'umat', 'muslim', 'mohon', 'maaf', 'lahir', 'dan', 'batin']</t>
+          <t>['sejarah', 'panjang', 'perjuangan', 'buruh', 'terus', 'berlangsung', 'tanpa', 'kenal', 'menyerah', 'perjuangan', 'untuk', 'mendapatkan', 'penghidupan']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['sejarah', 'panjang', 'perjuangan', 'buruh', 'terus', 'berlangsung', 'tanpa', 'kenal', 'menyerah', 'perjuangan', 'untuk', 'mendapatkan', 'penghidupan']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['selamat', 'menunaikan', 'ibadah', 'puasa', 'ramadan', 'umat', 'muslim', 'mohon', 'maaf', 'lahir', 'batin']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['selamat', 'tunai', 'ibadah', 'puasa', 'ramadan', 'umat', 'muslim', 'mohon', 'maaf', 'lahir', 'batin']</t>
+          <t>['sejarah', 'perjuangan', 'buruh', 'kenal', 'menyerah', 'perjuangan', 'penghidupan']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['sejarah', 'juang', 'buruh', 'kenal', 'serah', 'juang', 'hidup']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21382</v>
+        <v>31352</v>
       </c>
       <c r="C13" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>bisa tolong kasih informasi untuk dimana mohon bantuan untuk di monitor</t>
+          <t>selamat menunaikan ibadah puasa ramadan bagi umat muslim mohon maaf lahir dan batin</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['bisa', 'tolong', 'kasih', 'informasi', 'untuk', 'dimana', 'mohon', 'bantuan', 'untuk', 'di', 'monitor']</t>
+          <t>['selamat', 'menunaikan', 'ibadah', 'puasa', 'ramadan', 'bagi', 'umat', 'muslim', 'mohon', 'maaf', 'lahir', 'dan', 'batin']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['selamat', 'menunaikan', 'ibadah', 'puasa', 'ramadan', 'bagi', 'umat', 'muslim', 'mohon', 'maaf', 'lahir', 'dan', 'batin']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['tolong', 'kasih', 'informasi', 'dimana', 'mohon', 'bantuan', 'monitor']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['tolong', 'kasih', 'informasi', 'mana', 'mohon', 'bantu', 'monitor']</t>
+          <t>['selamat', 'menunaikan', 'ibadah', 'puasa', 'ramadan', 'umat', 'muslim', 'mohon', 'maaf', 'lahir', 'batin']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['selamat', 'tunai', 'ibadah', 'puasa', 'ramadan', 'umat', 'muslim', 'mohon', 'maaf', 'lahir', 'batin']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21383</v>
+        <v>31353</v>
       </c>
       <c r="C14" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>asprasetyo terima kasih koreksinya</t>
+          <t>bisa tolong kasih informasi untuk dimana mohon bantuan untuk di monitor</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['asprasetyo', 'terima', 'kasih', 'koreksinya']</t>
+          <t>['bisa', 'tolong', 'kasih', 'informasi', 'untuk', 'dimana', 'mohon', 'bantuan', 'untuk', 'di', 'monitor']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['bisa', 'tolong', 'kasih', 'informasi', 'untuk', 'dimana', 'mohon', 'bantuan', 'untuk', 'di', 'monitor']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['asprasetyo', 'terima', 'kasih', 'koreksinya']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['asprasetyo', 'terima', 'kasih', 'koreksi']</t>
+          <t>['tolong', 'kasih', 'informasi', 'dimana', 'mohon', 'bantuan', 'monitor']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['tolong', 'kasih', 'informasi', 'mana', 'mohon', 'bantu', 'monitor']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21384</v>
+        <v>31354</v>
       </c>
       <c r="C15" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sejak muda saya mendedikasikan hidup saya untuk bangsa dan negara saya menurut saya lebih baik berpera</t>
+          <t>asprasetyo terima kasih koreksinya</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['sejak', 'muda', 'saya', 'mendedikasikan', 'hidup', 'saya', 'untuk', 'bangsa', 'dan', 'negara', 'saya', 'menurut', 'saya', 'lebih', 'baik', 'berpera']</t>
+          <t>['asprasetyo', 'terima', 'kasih', 'koreksinya']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['asprasetyo', 'terima', 'kasih', 'koreksinya']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['muda', 'mendedikasikan', 'hidup', 'bangsa', 'negara', 'berpera']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['muda', 'dedikasi', 'hidup', 'bangsa', 'negara', 'pera']</t>
+          <t>['asprasetyo', 'terima', 'kasih', 'koreksinya']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['asprasetyo', 'terima', 'kasih', 'koreksi']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21385</v>
+        <v>31355</v>
       </c>
       <c r="C16" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>bersama kita hadapi keadaan yang paling buruk sekalipun dengan ridho tuhan yang maha kuasa allah subhanahu wa ta</t>
+          <t xml:space="preserve"> sejak muda saya mendedikasikan hidup saya untuk bangsa dan negara saya menurut saya lebih baik berpera</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['bersama', 'kita', 'hadapi', 'keadaan', 'yang', 'paling', 'buruk', 'sekalipun', 'dengan', 'ridho', 'tuhan', 'yang', 'maha', 'kuasa', 'allah', 'subhanahu', 'wa', 'ta']</t>
+          <t>['sejak', 'muda', 'saya', 'mendedikasikan', 'hidup', 'saya', 'untuk', 'bangsa', 'dan', 'negara', 'saya', 'menurut', 'saya', 'lebih', 'baik', 'berpera']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['sejak', 'muda', 'saya', 'mendedikasikan', 'hidup', 'saya', 'untuk', 'bangsa', 'dan', 'negara', 'saya', 'menurut', 'saya', 'lebih', 'baik', 'berpera']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['hadapi', 'buruk', 'ridho', 'tuhan', 'maha', 'kuasa', 'allah', 'subhanahu', 'wa', 'ta']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['hadap', 'buruk', 'ridho', 'tuhan', 'maha', 'kuasa', 'allah', 'subhanahu', 'wa', 'ta']</t>
+          <t>['muda', 'mendedikasikan', 'hidup', 'bangsa', 'negara', 'berpera']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['muda', 'dedikasi', 'hidup', 'bangsa', 'negara', 'pera']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21386</v>
+        <v>31356</v>
       </c>
       <c r="C17" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>jaga kesehatan dirimu keluargamu dan lingkunganmu laksanakan semua petunjuk dan arahan dari masingmasing pimpin</t>
+          <t>bersama kita hadapi keadaan yang paling buruk sekalipun dengan ridho tuhan yang maha kuasa allah subhanahu wa ta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['jaga', 'kesehatan', 'dirimu', 'keluargamu', 'dan', 'lingkunganmu', 'laksanakan', 'semua', 'petunjuk', 'dan', 'arahan', 'dari', 'masingmasing', 'pimpin']</t>
+          <t>['bersama', 'kita', 'hadapi', 'keadaan', 'yang', 'paling', 'buruk', 'sekalipun', 'dengan', 'ridho', 'tuhan', 'yang', 'maha', 'kuasa', 'allah', 'subhanahu', 'wa', 'ta']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['bersama', 'kita', 'hadapi', 'keadaan', 'yang', 'paling', 'buruk', 'sekalipun', 'dengan', 'rida', 'tuhan', 'yang', 'maha', 'kuasa', 'allah', 'subhanahu', 'wa', 'ta']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['jaga', 'kesehatan', 'dirimu', 'keluargamu', 'lingkunganmu', 'laksanakan', 'petunjuk', 'arahan', 'masingmasing', 'pimpin']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['jaga', 'sehat', 'diri', 'keluarga', 'lingkung', 'laksana', 'tunjuk', 'arah', 'masingmasing', 'pimpin']</t>
+          <t>['hadapi', 'buruk', 'rida', 'tuhan', 'maha', 'kuasa', 'allah', 'subhanahu', 'wa', 'ta']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['hadap', 'buruk', 'rida', 'tuhan', 'maha', 'kuasa', 'allah', 'subhanahu', 'wa', 'ta']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21387</v>
+        <v>31357</v>
       </c>
       <c r="C18" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>saya percaya bahwa ideologi kita dibenarkan oleh sejarah dari dulu kita selalu berjuang untuk indonesia swasembada</t>
+          <t>jaga kesehatan dirimu keluargamu dan lingkunganmu laksanakan semua petunjuk dan arahan dari masingmasing pimpin</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['saya', 'percaya', 'bahwa', 'ideologi', 'kita', 'dibenarkan', 'oleh', 'sejarah', 'dari', 'dulu', 'kita', 'selalu', 'berjuang', 'untuk', 'indonesia', 'swasembada']</t>
+          <t>['jaga', 'kesehatan', 'dirimu', 'keluargamu', 'dan', 'lingkunganmu', 'laksanakan', 'semua', 'petunjuk', 'dan', 'arahan', 'dari', 'masingmasing', 'pimpin']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['jaga', 'kesehatan', 'dirimu', 'keluargamu', 'dan', 'lingkunganmu', 'laksanakan', 'semua', 'petunjuk', 'dan', 'arahan', 'dari', 'masingmasing', 'pimpin']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['percaya', 'ideologi', 'dibenarkan', 'sejarah', 'berjuang', 'indonesia', 'swasembada']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['percaya', 'ideologi', 'benar', 'sejarah', 'juang', 'indonesia', 'swasembada']</t>
+          <t>['jaga', 'kesehatan', 'dirimu', 'keluargamu', 'lingkunganmu', 'laksanakan', 'petunjuk', 'arahan', 'masingmasing', 'pimpin']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['jaga', 'sehat', 'diri', 'keluarga', 'lingkung', 'laksana', 'tunjuk', 'arah', 'masingmasing', 'pimpin']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21388</v>
+        <v>31358</v>
       </c>
       <c r="C19" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>saya minta kader yang ekonominya dalam keadaan baik untuk mengorganisir mereka yang keadaan ekonominya le</t>
+          <t>saya percaya bahwa ideologi kita dibenarkan oleh sejarah dari dulu kita selalu berjuang untuk indonesia swasembada</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['saya', 'minta', 'kader', 'yang', 'ekonominya', 'dalam', 'keadaan', 'baik', 'untuk', 'mengorganisir', 'mereka', 'yang', 'keadaan', 'ekonominya', 'le']</t>
+          <t>['saya', 'percaya', 'bahwa', 'ideologi', 'kita', 'dibenarkan', 'oleh', 'sejarah', 'dari', 'dulu', 'kita', 'selalu', 'berjuang', 'untuk', 'indonesia', 'swasembada']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
+          <t>['saya', 'percaya', 'bahwa', 'ideologi', 'kita', 'dibenarkan', 'oleh', 'sejarah', 'dari', 'dulu', 'kita', 'selalu', 'berjuang', 'untuk', 'indonesia', 'swasembada']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['kader', 'ekonominya', 'mengorganisir', 'ekonominya', 'le']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['kader', 'ekonomi', 'organisir', 'ekonomi', 'le']</t>
+          <t>['percaya', 'ideologi', 'dibenarkan', 'sejarah', 'berjuang', 'indonesia', 'swasembada']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['percaya', 'ideologi', 'benar', 'sejarah', 'juang', 'indonesia', 'swasembada']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21389</v>
+        <v>31359</v>
       </c>
       <c r="C20" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ada kemungkinan kita harus menghadapi situasi yang tidak baik ini untuk beberapa waktu ke depan tetapi kita tetap</t>
+          <t>saya minta kader yang ekonominya dalam keadaan baik untuk mengorganisir mereka yang keadaan ekonominya le</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['ada', 'kemungkinan', 'kita', 'harus', 'menghadapi', 'situasi', 'yang', 'tidak', 'baik', 'ini', 'untuk', 'beberapa', 'waktu', 'ke', 'depan', 'tetapi', 'kita', 'tetap']</t>
+          <t>['saya', 'minta', 'kader', 'yang', 'ekonominya', 'dalam', 'keadaan', 'baik', 'untuk', 'mengorganisir', 'mereka', 'yang', 'keadaan', 'ekonominya', 'le']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['saya', 'meminta', 'kader', 'yang', 'ekonominya', 'dalam', 'keadaan', 'baik', 'untuk', 'mengorganisir', 'mereka', 'yang', 'keadaan', 'ekonominya', 'le']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['menghadapi', 'situasi']</t>
+          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['hadap', 'situasi']</t>
+          <t>['kader', 'ekonominya', 'mengorganisir', 'ekonominya', 'le']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['kader', 'ekonomi', 'organisir', 'ekonomi', 'le']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21390</v>
+        <v>31360</v>
       </c>
       <c r="C21" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>saya bangga melihat kaderkader partai gerindra di seluruh indonesia memberi bantuan kepada rakyat yang lebih membu</t>
+          <t>ada kemungkinan kita harus menghadapi situasi yang tidak baik ini untuk beberapa waktu ke depan tetapi kita tetap</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['saya', 'bangga', 'melihat', 'kaderkader', 'partai', 'gerindra', 'di', 'seluruh', 'indonesia', 'memberi', 'bantuan', 'kepada', 'rakyat', 'yang', 'lebih', 'membu']</t>
+          <t>['ada', 'kemungkinan', 'kita', 'harus', 'menghadapi', 'situasi', 'yang', 'tidak', 'baik', 'ini', 'untuk', 'beberapa', 'waktu', 'ke', 'depan', 'tetapi', 'kita', 'tetap']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['ada', 'kemungkinan', 'kita', 'harus', 'menghadapi', 'situasi', 'yang', 'tidak', 'baik', 'ini', 'untuk', 'beberapa', 'waktu', 'ke', 'depan', 'tetapi', 'kita', 'tetap']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['bangga', 'kaderkader', 'partai', 'gerindra', 'indonesia', 'bantuan', 'rakyat', 'membu']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['bangga', 'kaderkader', 'partai', 'gerindra', 'indonesia', 'bantu', 'rakyat', 'membu']</t>
+          <t>['menghadapi', 'situasi']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['hadap', 'situasi']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21391</v>
+        <v>31361</v>
       </c>
       <c r="C22" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>kita harus saling menjaga satu sama lain khususnya orangorang yang kita kasihi dan kita cintai mulai lah dari ha</t>
+          <t>saya bangga melihat kaderkader partai gerindra di seluruh indonesia memberi bantuan kepada rakyat yang lebih membu</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['kita', 'harus', 'saling', 'menjaga', 'satu', 'sama', 'lain', 'khususnya', 'orangorang', 'yang', 'kita', 'kasihi', 'dan', 'kita', 'cintai', 'mulai', 'lah', 'dari', 'ha']</t>
+          <t>['saya', 'bangga', 'melihat', 'kaderkader', 'partai', 'gerindra', 'di', 'seluruh', 'indonesia', 'memberi', 'bantuan', 'kepada', 'rakyat', 'yang', 'lebih', 'membu']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['saya', 'bangga', 'melihat', 'kaderkader', 'partai', 'gerindra', 'di', 'seluruh', 'indonesia', 'memberi', 'bantuan', 'kepada', 'rakyat', 'yang', 'lebih', 'membu']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['menjaga', 'orangorang', 'kasihi', 'cintai', 'ha']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['jaga', 'orangorang', 'kasih', 'cinta', 'ha']</t>
+          <t>['bangga', 'kaderkader', 'partai', 'gerindra', 'indonesia', 'bantuan', 'rakyat', 'membu']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['bangga', 'kaderkader', 'partai', 'gerindra', 'indonesia', 'bantu', 'rakyat', 'membu']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21392</v>
+        <v>31362</v>
       </c>
       <c r="C23" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">saudarasaudara jika kita ingin menang pertarungan lawan wabah covid ini saya meminta kepada saudara sekalian </t>
+          <t>kita harus saling menjaga satu sama lain khususnya orangorang yang kita kasihi dan kita cintai mulai lah dari ha</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['saudarasaudara', 'jika', 'kita', 'ingin', 'menang', 'pertarungan', 'lawan', 'wabah', 'covid', 'ini', 'saya', 'meminta', 'kepada', 'saudara', 'sekalian']</t>
+          <t>['kita', 'harus', 'saling', 'menjaga', 'satu', 'sama', 'lain', 'khususnya', 'orangorang', 'yang', 'kita', 'kasihi', 'dan', 'kita', 'cintai', 'mulai', 'lah', 'dari', 'ha']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['kita', 'harus', 'saling', 'menjaga', 'satu', 'sama', 'lain', 'khususnya', 'orangorang', 'yang', 'kita', 'kasihi', 'dan', 'kita', 'cintai', 'mulai', 'lah', 'dari', 'apa']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['saudarasaudara', 'menang', 'pertarungan', 'lawan', 'wabah', 'covid', 'saudara']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['saudarasaudara', 'menang', 'tarung', 'lawan', 'wabah', 'covid', 'saudara']</t>
+          <t>['menjaga', 'orangorang', 'kasihi', 'cintai']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['jaga', 'orangorang', 'kasih', 'cinta']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>21393</v>
+        <v>31363</v>
       </c>
       <c r="C24" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>jangan kita selalu melihat kekurangan tanpa memberikan solusi tapi harus saling mendukung dalam melawan wabah ini</t>
+          <t xml:space="preserve">saudarasaudara jika kita ingin menang pertarungan lawan wabah covid ini saya meminta kepada saudara sekalian </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['jangan', 'kita', 'selalu', 'melihat', 'kekurangan', 'tanpa', 'memberikan', 'solusi', 'tapi', 'harus', 'saling', 'mendukung', 'dalam', 'melawan', 'wabah', 'ini']</t>
+          <t>['saudarasaudara', 'jika', 'kita', 'ingin', 'menang', 'pertarungan', 'lawan', 'wabah', 'covid', 'ini', 'saya', 'meminta', 'kepada', 'saudara', 'sekalian']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['saudarasaudara', 'jika', 'kita', 'ingin', 'menang', 'pertarungan', 'lawan', 'wabah', 'covid', 'ini', 'saya', 'meminta', 'kepada', 'saudara', 'sekalian']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['kekurangan', 'solusi', 'mendukung', 'melawan', 'wabah']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['kurang', 'solusi', 'dukung', 'lawan', 'wabah']</t>
+          <t>['saudarasaudara', 'menang', 'pertarungan', 'lawan', 'wabah', 'covid', 'saudara']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['saudarasaudara', 'menang', 'tarung', 'lawan', 'wabah', 'covid', 'saudara']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21394</v>
+        <v>31364</v>
       </c>
       <c r="C25" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>saya ingin menyampaikan pandangan dan imbauan kepada saudara sekalian mengenai wabah virus covid yang sedang me</t>
+          <t>jangan kita selalu melihat kekurangan tanpa memberikan solusi tapi harus saling mendukung dalam melawan wabah ini</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['saya', 'ingin', 'menyampaikan', 'pandangan', 'dan', 'imbauan', 'kepada', 'saudara', 'sekalian', 'mengenai', 'wabah', 'virus', 'covid', 'yang', 'sedang', 'me']</t>
+          <t>['jangan', 'kita', 'selalu', 'melihat', 'kekurangan', 'tanpa', 'memberikan', 'solusi', 'tapi', 'harus', 'saling', 'mendukung', 'dalam', 'melawan', 'wabah', 'ini']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['jangan', 'kita', 'selalu', 'melihat', 'kekurangan', 'tanpa', 'memberikan', 'solusi', 'tapi', 'harus', 'saling', 'mendukung', 'dalam', 'melawan', 'wabah', 'ini']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['pandangan', 'imbauan', 'saudara', 'wabah', 'virus', 'covid', 'me']</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['pandang', 'imbau', 'saudara', 'wabah', 'virus', 'covid', 'me']</t>
+          <t>['kekurangan', 'solusi', 'mendukung', 'melawan', 'wabah']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['kurang', 'solusi', 'dukung', 'lawan', 'wabah']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21395</v>
+        <v>31365</v>
       </c>
       <c r="C26" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>situasi politik beberapa bulan belakangan ini terjadi begitu cepat sehingga saya harus mengambil keputusan dengan</t>
+          <t>saya ingin menyampaikan pandangan dan imbauan kepada saudara sekalian mengenai wabah virus covid yang sedang me</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['situasi', 'politik', 'beberapa', 'bulan', 'belakangan', 'ini', 'terjadi', 'begitu', 'cepat', 'sehingga', 'saya', 'harus', 'mengambil', 'keputusan', 'dengan']</t>
+          <t>['saya', 'ingin', 'menyampaikan', 'pandangan', 'dan', 'imbauan', 'kepada', 'saudara', 'sekalian', 'mengenai', 'wabah', 'virus', 'covid', 'yang', 'sedang', 'me']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['saya', 'ingin', 'menyampaikan', 'pandangan', 'dan', 'imbauan', 'kepada', 'saudara', 'sekalian', 'mengenai', 'wabah', 'virus', 'covid', 'yang', 'sedang', 'me']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['situasi', 'politik', 'cepat', 'mengambil', 'keputusan']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['situasi', 'politik', 'cepat', 'ambil', 'putus']</t>
+          <t>['pandangan', 'imbauan', 'saudara', 'wabah', 'virus', 'covid', 'me']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['pandang', 'imbau', 'saudara', 'wabah', 'virus', 'covid', 'me']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21396</v>
+        <v>31366</v>
       </c>
       <c r="C27" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>saya minta maaf yang sebesarbesarnya setelah beberapa waktu baru sekarang saya kembali berkomunikasi dengan saudarasaudara sekalian</t>
+          <t>situasi politik beberapa bulan belakangan ini terjadi begitu cepat sehingga saya harus mengambil keputusan dengan</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['saya', 'minta', 'maaf', 'yang', 'sebesarbesarnya', 'setelah', 'beberapa', 'waktu', 'baru', 'sekarang', 'saya', 'kembali', 'berkomunikasi', 'dengan', 'saudarasaudara', 'sekalian']</t>
+          <t>['situasi', 'politik', 'beberapa', 'bulan', 'belakangan', 'ini', 'terjadi', 'begitu', 'cepat', 'sehingga', 'saya', 'harus', 'mengambil', 'keputusan', 'dengan']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['situasi', 'politik', 'beberapa', 'bulan', 'belakangan', 'ini', 'terjadi', 'begitu', 'cepat', 'sehingga', 'saya', 'harus', 'mengambil', 'keputusan', 'dengan']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['maaf', 'sebesarbesarnya', 'berkomunikasi', 'saudarasaudara']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['maaf', 'sebesarbesarnya', 'komunikasi', 'saudarasaudara']</t>
+          <t>['situasi', 'politik', 'cepat', 'mengambil', 'keputusan']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['situasi', 'politik', 'cepat', 'ambil', 'putus']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>21397</v>
+        <v>31367</v>
       </c>
       <c r="C28" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">selamat malam sahabat twitter dimana pun anda berada semoga selalu dalam keadaan sehat malam ini saya sampaikan </t>
+          <t>saya minta maaf yang sebesarbesarnya setelah beberapa waktu baru sekarang saya kembali berkomunikasi dengan saudarasaudara sekalian</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['selamat', 'malam', 'sahabat', 'twitter', 'dimana', 'pun', 'anda', 'berada', 'semoga', 'selalu', 'dalam', 'keadaan', 'sehat', 'malam', 'ini', 'saya', 'sampaikan']</t>
+          <t>['saya', 'minta', 'maaf', 'yang', 'sebesarbesarnya', 'setelah', 'beberapa', 'waktu', 'baru', 'sekarang', 'saya', 'kembali', 'berkomunikasi', 'dengan', 'saudarasaudara', 'sekalian']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['saya', 'meminta', 'maaf', 'yang', 'sebesarbesarnya', 'setelah', 'beberapa', 'waktu', 'baru', 'sekarang', 'saya', 'kembali', 'berkomunikasi', 'dengan', 'saudarasaudara', 'sekalian']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['selamat', 'malam', 'sahabat', 'twitter', 'dimana', 'semoga', 'sehat', 'malam']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['selamat', 'malam', 'sahabat', 'twitter', 'mana', 'moga', 'sehat', 'malam']</t>
+          <t>['maaf', 'sebesarbesarnya', 'berkomunikasi', 'saudarasaudara']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['maaf', 'sebesarbesarnya', 'komunikasi', 'saudarasaudara']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>21398</v>
+        <v>31368</v>
       </c>
       <c r="C29" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>selamat harlah nahdlatul ulama ke semoga semakin mandiri menjadi benteng nkri dan dalam usaha menjaga perdamaian dunia</t>
+          <t xml:space="preserve">selamat malam sahabat twitter dimana pun anda berada semoga selalu dalam keadaan sehat malam ini saya sampaikan </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['selamat', 'harlah', 'nahdlatul', 'ulama', 'ke', 'semoga', 'semakin', 'mandiri', 'menjadi', 'benteng', 'nkri', 'dan', 'dalam', 'usaha', 'menjaga', 'perdamaian', 'dunia']</t>
+          <t>['selamat', 'malam', 'sahabat', 'twitter', 'dimana', 'pun', 'anda', 'berada', 'semoga', 'selalu', 'dalam', 'keadaan', 'sehat', 'malam', 'ini', 'saya', 'sampaikan']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['selamat', 'malam', 'sahabat', 'twitter', 'dimana', 'pun', 'anda', 'berada', 'semoga', 'selalu', 'dalam', 'keadaan', 'sehat', 'malam', 'ini', 'saya', 'sampaikan']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['selamat', 'harlah', 'nahdlatul', 'ulama', 'semoga', 'mandiri', 'benteng', 'nkri', 'usaha', 'menjaga', 'perdamaian', 'dunia']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['selamat', 'harlah', 'nahdlatul', 'ulama', 'moga', 'mandiri', 'benteng', 'nkri', 'usaha', 'jaga', 'damai', 'dunia']</t>
+          <t>['selamat', 'malam', 'sahabat', 'twitter', 'dimana', 'semoga', 'sehat', 'malam']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['selamat', 'malam', 'sahabat', 'twitter', 'mana', 'moga', 'sehat', 'malam']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21399</v>
+        <v>31369</v>
       </c>
       <c r="C30" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>selamat tahun baru imlek kongzili bagi sahabat yang merayakan semoga dilimpahkan kemakmuran kebahagiaan dan</t>
+          <t>selamat harlah nahdlatul ulama ke semoga semakin mandiri menjadi benteng nkri dan dalam usaha menjaga perdamaian dunia</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['selamat', 'tahun', 'baru', 'imlek', 'kongzili', 'bagi', 'sahabat', 'yang', 'merayakan', 'semoga', 'dilimpahkan', 'kemakmuran', 'kebahagiaan', 'dan']</t>
+          <t>['selamat', 'harlah', 'nahdlatul', 'ulama', 'ke', 'semoga', 'semakin', 'mandiri', 'menjadi', 'benteng', 'nkri', 'dan', 'dalam', 'usaha', 'menjaga', 'perdamaian', 'dunia']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['selamat', 'harlah', 'nahdlatul', 'ulama', 'ke', 'semoga', 'semakin', 'mandiri', 'menjadi', 'benteng', 'negara, kesatuan, republik, indonesia', 'dan', 'dalam', 'usaha', 'menjaga', 'perdamaian', 'dunia']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['selamat', 'imlek', 'kongzili', 'sahabat', 'merayakan', 'semoga', 'dilimpahkan', 'kemakmuran', 'kebahagiaan']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['selamat', 'imlek', 'kongzili', 'sahabat', 'raya', 'moga', 'limpah', 'makmur', 'bahagia']</t>
+          <t>['selamat', 'harlah', 'nahdlatul', 'ulama', 'semoga', 'mandiri', 'benteng', 'negara, kesatuan, republik, indonesia', 'usaha', 'menjaga', 'perdamaian', 'dunia']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['selamat', 'harlah', 'nahdlatul', 'ulama', 'moga', 'mandiri', 'benteng', 'negara satu republik indonesia', 'usaha', 'jaga', 'damai', 'dunia']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>21400</v>
+        <v>31370</v>
       </c>
       <c r="C31" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>selamat merayakan natal bagi seluruh sahabat kristiani semoga selalu dipenuhi damai dan suka cita selamat berku</t>
+          <t>selamat tahun baru imlek kongzili bagi sahabat yang merayakan semoga dilimpahkan kemakmuran kebahagiaan dan</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['selamat', 'merayakan', 'natal', 'bagi', 'seluruh', 'sahabat', 'kristiani', 'semoga', 'selalu', 'dipenuhi', 'damai', 'dan', 'suka', 'cita', 'selamat', 'berku']</t>
+          <t>['selamat', 'tahun', 'baru', 'imlek', 'kongzili', 'bagi', 'sahabat', 'yang', 'merayakan', 'semoga', 'dilimpahkan', 'kemakmuran', 'kebahagiaan', 'dan']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['selamat', 'tahun', 'baru', 'imlek', 'kongzili', 'bagi', 'sahabat', 'yang', 'merayakan', 'semoga', 'dilimpahkan', 'kemakmuran', 'kebahagiaan', 'dan']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['selamat', 'merayakan', 'natal', 'sahabat', 'kristiani', 'semoga', 'dipenuhi', 'damai', 'suka', 'cita', 'selamat', 'berku']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['selamat', 'raya', 'natal', 'sahabat', 'kristiani', 'moga', 'penuh', 'damai', 'suka', 'cita', 'selamat', 'berku']</t>
+          <t>['selamat', 'imlek', 'kongzili', 'sahabat', 'merayakan', 'semoga', 'dilimpahkan', 'kemakmuran', 'kebahagiaan']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['selamat', 'imlek', 'kongzili', 'sahabat', 'raya', 'moga', 'limpah', 'makmur', 'bahagia']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>21401</v>
+        <v>31371</v>
       </c>
       <c r="C32" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ini adalah pidato gubernur suryo dalam merespon ultimatum tentara inggris terhadap warga surabaya kita bangsa pemb</t>
+          <t>selamat merayakan natal bagi seluruh sahabat kristiani semoga selalu dipenuhi damai dan suka cita selamat berku</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['ini', 'adalah', 'pidato', 'gubernur', 'suryo', 'dalam', 'merespon', 'ultimatum', 'tentara', 'inggris', 'terhadap', 'warga', 'surabaya', 'kita', 'bangsa', 'pemb']</t>
+          <t>['selamat', 'merayakan', 'natal', 'bagi', 'seluruh', 'sahabat', 'kristiani', 'semoga', 'selalu', 'dipenuhi', 'damai', 'dan', 'suka', 'cita', 'selamat', 'berku']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['selamat', 'merayakan', 'natal', 'bagi', 'seluruh', 'sahabat', 'kristiani', 'semoga', 'selalu', 'dipenuhi', 'damai', 'dan', 'suka', 'cita', 'selamat', 'berku']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['pidato', 'gubernur', 'suryo', 'merespon', 'ultimatum', 'tentara', 'inggris', 'warga', 'surabaya', 'bangsa', 'pemb']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['pidato', 'gubernur', 'suryo', 'merespon', 'ultimatum', 'tentara', 'inggris', 'warga', 'surabaya', 'bangsa', 'pemb']</t>
+          <t>['selamat', 'merayakan', 'natal', 'sahabat', 'kristiani', 'semoga', 'dipenuhi', 'damai', 'suka', 'cita', 'selamat', 'berku']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['selamat', 'raya', 'natal', 'sahabat', 'kristiani', 'moga', 'penuh', 'damai', 'suka', 'cita', 'selamat', 'berku']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>21402</v>
+        <v>31372</v>
       </c>
       <c r="C33" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">di hari pahlawan ini saya mengajak seluruh anak bangsa yang berjiwa merah putih untuk teguhkan tekad bersatu dan </t>
+          <t>ini adalah pidato gubernur suryo dalam merespon ultimatum tentara inggris terhadap warga surabaya kita bangsa pemb</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['di', 'hari', 'pahlawan', 'ini', 'saya', 'mengajak', 'seluruh', 'anak', 'bangsa', 'yang', 'berjiwa', 'merah', 'putih', 'untuk', 'teguhkan', 'tekad', 'bersatu', 'dan']</t>
+          <t>['ini', 'adalah', 'pidato', 'gubernur', 'suryo', 'dalam', 'merespon', 'ultimatum', 'tentara', 'inggris', 'terhadap', 'warga', 'surabaya', 'kita', 'bangsa', 'pemb']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['ini', 'adalah', 'pidato', 'gubernur', 'suryo', 'dalam', 'menjawab', 'ultimatum', 'tentara', 'inggris', 'terhadap', 'warga', 'surabaya', 'kita', 'bangsa', 'pemb']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['pahlawan', 'mengajak', 'anak', 'bangsa', 'berjiwa', 'merah', 'putih', 'teguhkan', 'tekad', 'bersatu']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['pahlawan', 'ajak', 'anak', 'bangsa', 'jiwa', 'merah', 'putih', 'teguh', 'tekad', 'satu']</t>
+          <t>['pidato', 'gubernur', 'suryo', 'ultimatum', 'tentara', 'inggris', 'warga', 'surabaya', 'bangsa', 'pemb']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['pidato', 'gubernur', 'suryo', 'ultimatum', 'tentara', 'inggris', 'warga', 'surabaya', 'bangsa', 'pemb']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>21403</v>
+        <v>31373</v>
       </c>
       <c r="C34" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>pertempuran surabaya adalah pertempuran pertama melawan pasukan asing setelah proklamasi kemerdekaan indonesia mer</t>
+          <t xml:space="preserve">di hari pahlawan ini saya mengajak seluruh anak bangsa yang berjiwa merah putih untuk teguhkan tekad bersatu dan </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['pertempuran', 'surabaya', 'adalah', 'pertempuran', 'pertama', 'melawan', 'pasukan', 'asing', 'setelah', 'proklamasi', 'kemerdekaan', 'indonesia', 'mer']</t>
+          <t>['di', 'hari', 'pahlawan', 'ini', 'saya', 'mengajak', 'seluruh', 'anak', 'bangsa', 'yang', 'berjiwa', 'merah', 'putih', 'untuk', 'teguhkan', 'tekad', 'bersatu', 'dan']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['di', 'hari', 'pahlawan', 'ini', 'saya', 'mengajak', 'seluruh', 'anak', 'bangsa', 'yang', 'berjiwa', 'merah', 'putih', 'untuk', 'teguhkan', 'tekad', 'bersatu', 'dan']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['pertempuran', 'surabaya', 'pertempuran', 'melawan', 'pasukan', 'asing', 'proklamasi', 'kemerdekaan', 'indonesia', 'mer']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['tempur', 'surabaya', 'tempur', 'lawan', 'pasu', 'asing', 'proklamasi', 'merdeka', 'indonesia', 'mer']</t>
+          <t>['pahlawan', 'mengajak', 'anak', 'bangsa', 'berjiwa', 'merah', 'putih', 'teguhkan', 'tekad', 'bersatu']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['pahlawan', 'ajak', 'anak', 'bangsa', 'jiwa', 'merah', 'putih', 'teguh', 'tekad', 'satu']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>21404</v>
+        <v>31374</v>
       </c>
       <c r="C35" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">pada november gubernur suryo mengajak seluruh komponen warga surabaya untuk meneguhkan tekad bersatu dan </t>
+          <t>pertempuran surabaya adalah pertempuran pertama melawan pasukan asing setelah proklamasi kemerdekaan indonesia mer</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['pada', 'november', 'gubernur', 'suryo', 'mengajak', 'seluruh', 'komponen', 'warga', 'surabaya', 'untuk', 'meneguhkan', 'tekad', 'bersatu', 'dan']</t>
+          <t>['pertempuran', 'surabaya', 'adalah', 'pertempuran', 'pertama', 'melawan', 'pasukan', 'asing', 'setelah', 'proklamasi', 'kemerdekaan', 'indonesia', 'mer']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['pertempuran', 'surabaya', 'adalah', 'pertempuran', 'pertama', 'melawan', 'pasukan', 'asing', 'setelah', 'proklamasi', 'kemerdekaan', 'indonesia', 'mer']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['november', 'gubernur', 'suryo', 'mengajak', 'komponen', 'warga', 'surabaya', 'meneguhkan', 'tekad', 'bersatu']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['november', 'gubernur', 'suryo', 'ajak', 'komponen', 'warga', 'surabaya', 'teguh', 'tekad', 'satu']</t>
+          <t>['pertempuran', 'surabaya', 'pertempuran', 'melawan', 'pasukan', 'asing', 'proklamasi', 'kemerdekaan', 'indonesia', 'mer']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['tempur', 'surabaya', 'tempur', 'lawan', 'pasu', 'asing', 'proklamasi', 'merdeka', 'indonesia', 'mer']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>21405</v>
+        <v>31375</v>
       </c>
       <c r="C36" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>selamat memperingati hari kelahiran baginda rasulullah semoga kita semua mampu meneladani sifatsifat beliau dan</t>
+          <t xml:space="preserve">pada november gubernur suryo mengajak seluruh komponen warga surabaya untuk meneguhkan tekad bersatu dan </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['selamat', 'memperingati', 'hari', 'kelahiran', 'baginda', 'rasulullah', 'semoga', 'kita', 'semua', 'mampu', 'meneladani', 'sifatsifat', 'beliau', 'dan']</t>
+          <t>['pada', 'november', 'gubernur', 'suryo', 'mengajak', 'seluruh', 'komponen', 'warga', 'surabaya', 'untuk', 'meneguhkan', 'tekad', 'bersatu', 'dan']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['pada', 'november', 'gubernur', 'suryo', 'mengajak', 'seluruh', 'komponen', 'warga', 'surabaya', 'untuk', 'meneguhkan', 'tekad', 'bersatu', 'dan']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['selamat', 'memperingati', 'kelahiran', 'baginda', 'rasulullah', 'semoga', 'meneladani', 'sifatsifat', 'beliau']</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['selamat', 'ingat', 'lahir', 'baginda', 'rasulullah', 'moga', 'teladan', 'sifatsifat', 'beliau']</t>
+          <t>['november', 'gubernur', 'suryo', 'mengajak', 'komponen', 'warga', 'surabaya', 'meneguhkan', 'tekad', 'bersatu']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['november', 'gubernur', 'suryo', 'ajak', 'komponen', 'warga', 'surabaya', 'teguh', 'tekad', 'satu']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>21406</v>
+        <v>31376</v>
       </c>
       <c r="C37" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>manusia yang baik adalah dia yang paling banyak manfaatnya untuk sesama demikian apa yang disampaikan dalam kis</t>
+          <t>selamat memperingati hari kelahiran baginda rasulullah semoga kita semua mampu meneladani sifatsifat beliau dan</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['manusia', 'yang', 'baik', 'adalah', 'dia', 'yang', 'paling', 'banyak', 'manfaatnya', 'untuk', 'sesama', 'demikian', 'apa', 'yang', 'disampaikan', 'dalam', 'kis']</t>
+          <t>['selamat', 'memperingati', 'hari', 'kelahiran', 'baginda', 'rasulullah', 'semoga', 'kita', 'semua', 'mampu', 'meneladani', 'sifatsifat', 'beliau', 'dan']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['selamat', 'memperingati', 'hari', 'kelahiran', 'baginda', 'rasulullah', 'semoga', 'kita', 'semua', 'mampu', 'meneladani', 'sifatsifat', 'beliau', 'dan']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['manusia', 'manfaatnya', 'kis']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['manusia', 'manfaat', 'kis']</t>
+          <t>['selamat', 'memperingati', 'kelahiran', 'baginda', 'rasulullah', 'semoga', 'meneladani', 'sifatsifat', 'beliau']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['selamat', 'ingat', 'lahir', 'baginda', 'rasulullah', 'moga', 'teladan', 'sifatsifat', 'beliau']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>21407</v>
+        <v>31377</v>
       </c>
       <c r="C38" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>kunjungan kerja ke mabes tni</t>
+          <t>manusia yang baik adalah dia yang paling banyak manfaatnya untuk sesama demikian apa yang disampaikan dalam kis</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['kunjungan', 'kerja', 'ke', 'mabes', 'tni']</t>
+          <t>['manusia', 'yang', 'baik', 'adalah', 'dia', 'yang', 'paling', 'banyak', 'manfaatnya', 'untuk', 'sesama', 'demikian', 'apa', 'yang', 'disampaikan', 'dalam', 'kis']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['manusia', 'yang', 'baik', 'adalah', 'dia', 'yang', 'paling', 'banyak', 'manfaatnya', 'untuk', 'sesama', 'demikian', 'apa', 'yang', 'disampaikan', 'dalam', 'kartu, indonesia, sehat']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['kunjungan', 'kerja', 'mabes', 'tni']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['kunjung', 'kerja', 'mabes', 'tni']</t>
+          <t>['manusia', 'manfaatnya', 'kartu, indonesia, sehat']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['manusia', 'manfaat', 'kartu indonesia sehat']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>21408</v>
+        <v>31378</v>
       </c>
       <c r="C39" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>kita harus berdiri sama tinggi dan duduk sama rendah dengan bangsa manapun kawan terlalu sedikit musuh terl</t>
+          <t>kunjungan kerja ke mabes tni</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['kita', 'harus', 'berdiri', 'sama', 'tinggi', 'dan', 'duduk', 'sama', 'rendah', 'dengan', 'bangsa', 'manapun', 'kawan', 'terlalu', 'sedikit', 'musuh', 'terl']</t>
+          <t>['kunjungan', 'kerja', 'ke', 'mabes', 'tni']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['kunjungan', 'kerja', 'ke', 'markas, besar', 'tentara, nasional, indonesia']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['berdiri', 'duduk', 'rendah', 'bangsa', 'manapun', 'kawan', 'musuh', 'terl']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['diri', 'duduk', 'rendah', 'bangsa', 'mana', 'kawan', 'musuh', 'terl']</t>
+          <t>['kunjungan', 'kerja', 'markas, besar', 'tentara, nasional, indonesia']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['kunjung', 'kerja', 'markas besar', 'tentara nasional indonesia']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>21409</v>
+        <v>31379</v>
       </c>
       <c r="C40" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>kami sepakat bahwa kedaulatan antar dua negara adalah hal yang utama selain itu stabilitas dari sebuah negara dapa</t>
+          <t>kita harus berdiri sama tinggi dan duduk sama rendah dengan bangsa manapun kawan terlalu sedikit musuh terl</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['kami', 'sepakat', 'bahwa', 'kedaulatan', 'antar', 'dua', 'negara', 'adalah', 'hal', 'yang', 'utama', 'selain', 'itu', 'stabilitas', 'dari', 'sebuah', 'negara', 'dapa']</t>
+          <t>['kita', 'harus', 'berdiri', 'sama', 'tinggi', 'dan', 'duduk', 'sama', 'rendah', 'dengan', 'bangsa', 'manapun', 'kawan', 'terlalu', 'sedikit', 'musuh', 'terl']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['kita', 'harus', 'berdiri', 'sama', 'tinggi', 'dan', 'duduk', 'sama', 'rendah', 'dengan', 'bangsa', 'manapun', 'kawan', 'terlalu', 'sedikit', 'musuh', 'terl']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['sepakat', 'kedaulatan', 'negara', 'utama', 'stabilitas', 'negara', 'dapa']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['sepakat', 'daulat', 'negara', 'utama', 'stabilitas', 'negara', 'dapa']</t>
+          <t>['berdiri', 'duduk', 'rendah', 'bangsa', 'manapun', 'kawan', 'musuh', 'terl']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['diri', 'duduk', 'rendah', 'bangsa', 'mana', 'kawan', 'musuh', 'terl']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>21410</v>
+        <v>31380</v>
       </c>
       <c r="C41" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>di dampingi kasad jend tni andika perkasa saya menerima kunjungan duta besar china untuk indonesia yang mulia xia</t>
+          <t>kami sepakat bahwa kedaulatan antar dua negara adalah hal yang utama selain itu stabilitas dari sebuah negara dapa</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['di', 'dampingi', 'kasad', 'jend', 'tni', 'andika', 'perkasa', 'saya', 'menerima', 'kunjungan', 'duta', 'besar', 'china', 'untuk', 'indonesia', 'yang', 'mulia', 'xia']</t>
+          <t>['kami', 'sepakat', 'bahwa', 'kedaulatan', 'antar', 'dua', 'negara', 'adalah', 'hal', 'yang', 'utama', 'selain', 'itu', 'stabilitas', 'dari', 'sebuah', 'negara', 'dapa']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['kami', 'sepakat', 'bahwa', 'kedaulatan', 'antar', 'dua', 'negara', 'adalah', 'hal', 'yang', 'utama', 'selain', 'itu', 'stabilitas', 'dari', 'sebuah', 'negara', 'ada, apa']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['dampingi', 'kasad', 'jend', 'tni', 'andika', 'perkasa', 'menerima', 'kunjungan', 'duta', 'china', 'indonesia', 'mulia', 'xia']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['damping', 'kasad', 'jend', 'tni', 'andika', 'perkasa', 'terima', 'kunjung', 'duta', 'china', 'indonesia', 'mulia', 'xia']</t>
+          <t>['sepakat', 'kedaulatan', 'negara', 'utama', 'stabilitas', 'negara', 'ada, apa']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['sepakat', 'daulat', 'negara', 'utama', 'stabilitas', 'negara', 'ada apa']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>21411</v>
+        <v>31381</v>
       </c>
       <c r="C42" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>di hari ini oktober hari santri nasional menjadi momentum untuk merefleksikan semangat juang para santri di dal</t>
+          <t>di dampingi kasad jend tni andika perkasa saya menerima kunjungan duta besar china untuk indonesia yang mulia xia</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['di', 'hari', 'ini', 'oktober', 'hari', 'santri', 'nasional', 'menjadi', 'momentum', 'untuk', 'merefleksikan', 'semangat', 'juang', 'para', 'santri', 'di', 'dal']</t>
+          <t>['di', 'dampingi', 'kasad', 'jend', 'tni', 'andika', 'perkasa', 'saya', 'menerima', 'kunjungan', 'duta', 'besar', 'china', 'untuk', 'indonesia', 'yang', 'mulia', 'xia']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['di', 'dampingi', 'kasad', 'jend', 'tentara, nasional, indonesia', 'andika', 'perkasa', 'saya', 'menerima', 'kunjungan', 'duta', 'besar', 'cina', 'untuk', 'indonesia', 'yang', 'mulia', 'xia']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['oktober', 'santri', 'nasional', 'momentum', 'merefleksikan', 'semangat', 'juang', 'santri', 'dal']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['oktober', 'santri', 'nasional', 'momentum', 'refleksi', 'semangat', 'juang', 'santri', 'dal']</t>
+          <t>['dampingi', 'kasad', 'jend', 'tentara, nasional, indonesia', 'andika', 'perkasa', 'menerima', 'kunjungan', 'duta', 'cina', 'indonesia', 'mulia', 'xia']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['damping', 'kasad', 'jend', 'tentara nasional indonesia', 'andika', 'perkasa', 'terima', 'kunjung', 'duta', 'cina', 'indonesia', 'mulia', 'xia']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>21412</v>
+        <v>31382</v>
       </c>
       <c r="C43" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>dengan fatwa tersebut beliau mampu membakar api semangat para santri dan kiai untuk bangkit melawan serta turun ke</t>
+          <t>di hari ini oktober hari santri nasional menjadi momentum untuk merefleksikan semangat juang para santri di dal</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['dengan', 'fatwa', 'tersebut', 'beliau', 'mampu', 'membakar', 'api', 'semangat', 'para', 'santri', 'dan', 'kiai', 'untuk', 'bangkit', 'melawan', 'serta', 'turun', 'ke']</t>
+          <t>['di', 'hari', 'ini', 'oktober', 'hari', 'santri', 'nasional', 'menjadi', 'momentum', 'untuk', 'merefleksikan', 'semangat', 'juang', 'para', 'santri', 'di', 'dal']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['di', 'hari', 'ini', 'oktober', 'hari', 'santri', 'nasional', 'menjadi', 'momentum', 'untuk', 'merefleksikan', 'semangat', 'juang', 'para', 'santri', 'di', 'dal']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['fatwa', 'beliau', 'membakar', 'api', 'semangat', 'santri', 'kiai', 'bangkit', 'melawan', 'turun']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['fatwa', 'beliau', 'bakar', 'api', 'semangat', 'santri', 'kiai', 'bangkit', 'lawan', 'turun']</t>
+          <t>['oktober', 'santri', 'nasional', 'momentum', 'merefleksikan', 'semangat', 'juang', 'santri', 'dal']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['oktober', 'santri', 'nasional', 'momentum', 'refleksi', 'semangat', 'juang', 'santri', 'dal']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>21413</v>
+        <v>31383</v>
       </c>
       <c r="C44" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">oktober merupakan hari penting dalam sejarah mempertahankan kedaulatan republik indonesia seorang alim ulama </t>
+          <t>dengan fatwa tersebut beliau mampu membakar api semangat para santri dan kiai untuk bangkit melawan serta turun ke</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['oktober', 'merupakan', 'hari', 'penting', 'dalam', 'sejarah', 'mempertahankan', 'kedaulatan', 'republik', 'indonesia', 'seorang', 'alim', 'ulama']</t>
+          <t>['dengan', 'fatwa', 'tersebut', 'beliau', 'mampu', 'membakar', 'api', 'semangat', 'para', 'santri', 'dan', 'kiai', 'untuk', 'bangkit', 'melawan', 'serta', 'turun', 'ke']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['dengan', 'fatwa', 'tersebut', 'beliau', 'mampu', 'membakar', 'api', 'semangat', 'para', 'santri', 'dan', 'kiai', 'untuk', 'bangkit', 'melawan', 'serta', 'turun', 'ke']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['oktober', 'sejarah', 'mempertahankan', 'kedaulatan', 'republik', 'indonesia', 'alim', 'ulama']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['oktober', 'sejarah', 'tahan', 'daulat', 'republik', 'indonesia', 'alim', 'ulama']</t>
+          <t>['fatwa', 'beliau', 'membakar', 'api', 'semangat', 'santri', 'kiai', 'bangkit', 'melawan', 'turun']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['fatwa', 'beliau', 'bakar', 'api', 'semangat', 'santri', 'kiai', 'bangkit', 'lawan', 'turun']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>21414</v>
+        <v>31384</v>
       </c>
       <c r="C45" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>seperti pepatah tiongkok seribu kawan terlalu sedikit satu musuh terlalu banyak saya berharap komunikasi kita ak</t>
+          <t xml:space="preserve">oktober merupakan hari penting dalam sejarah mempertahankan kedaulatan republik indonesia seorang alim ulama </t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['seperti', 'pepatah', 'tiongkok', 'seribu', 'kawan', 'terlalu', 'sedikit', 'satu', 'musuh', 'terlalu', 'banyak', 'saya', 'berharap', 'komunikasi', 'kita', 'ak']</t>
+          <t>['oktober', 'merupakan', 'hari', 'penting', 'dalam', 'sejarah', 'mempertahankan', 'kedaulatan', 'republik', 'indonesia', 'seorang', 'alim', 'ulama']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['oktober', 'merupakan', 'hari', 'penting', 'dalam', 'sejarah', 'mempertahankan', 'kedaulatan', 'republik', 'indonesia', 'seorang', 'alim', 'ulama']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['pepatah', 'tiongkok', 'seribu', 'kawan', 'musuh', 'berharap', 'komunikasi', 'ak']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['pepatah', 'tiongkok', 'ribu', 'kawan', 'musuh', 'harap', 'komunikasi', 'ak']</t>
+          <t>['oktober', 'sejarah', 'mempertahankan', 'kedaulatan', 'republik', 'indonesia', 'alim', 'ulama']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['oktober', 'sejarah', 'tahan', 'daulat', 'republik', 'indonesia', 'alim', 'ulama']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>21415</v>
+        <v>31385</v>
       </c>
       <c r="C46" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>terima kasih setinggitingginya atas perhatian dan doa para sahabat di hari kelahiran saya saya turut mendoaka</t>
+          <t>seperti pepatah tiongkok seribu kawan terlalu sedikit satu musuh terlalu banyak saya berharap komunikasi kita ak</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'setinggitingginya', 'atas', 'perhatian', 'dan', 'doa', 'para', 'sahabat', 'di', 'hari', 'kelahiran', 'saya', 'saya', 'turut', 'mendoaka']</t>
+          <t>['seperti', 'pepatah', 'tiongkok', 'seribu', 'kawan', 'terlalu', 'sedikit', 'satu', 'musuh', 'terlalu', 'banyak', 'saya', 'berharap', 'komunikasi', 'kita', 'ak']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['seperti', 'pepatah', 'tiongkok', 'seribu', 'kawan', 'terlalu', 'sedikit', 'satu', 'musuh', 'terlalu', 'banyak', 'saya', 'berharap', 'komunikasi', 'kita', 'aku']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>['terima', 'kasih', 'setinggitingginya', 'perhatian', 'doa', 'sahabat', 'kelahiran', 'mendoaka']</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'setinggitingginya', 'perhati', 'doa', 'sahabat', 'lahir', 'mendoaka']</t>
+          <t>['pepatah', 'tiongkok', 'seribu', 'kawan', 'musuh', 'berharap', 'komunikasi']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['pepatah', 'tiongkok', 'ribu', 'kawan', 'musuh', 'harap', 'komunikasi']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>21416</v>
+        <v>31386</v>
       </c>
       <c r="C47" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>inna lillahi wa inna ilaihi rajiun saya atas nama pribadi dan keluarga besar partai mengucapkan turut</t>
+          <t>terima kasih setinggitingginya atas perhatian dan doa para sahabat di hari kelahiran saya saya turut mendoaka</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'saya', 'atas', 'nama', 'pribadi', 'dan', 'keluarga', 'besar', 'partai', 'mengucapkan', 'turut']</t>
+          <t>['terima', 'kasih', 'setinggitingginya', 'atas', 'perhatian', 'dan', 'doa', 'para', 'sahabat', 'di', 'hari', 'kelahiran', 'saya', 'saya', 'turut', 'mendoaka']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['terima', 'kasih', 'setinggitingginya', 'atas', 'perhatian', 'dan', 'doa', 'para', 'sahabat', 'di', 'hari', 'kelahiran', 'saya', 'saya', 'turut', 'mendoaka']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'nama', 'pribadi', 'keluarga', 'partai']</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'nama', 'pribadi', 'keluarga', 'partai']</t>
+          <t>['terima', 'kasih', 'setinggitingginya', 'perhatian', 'doa', 'sahabat', 'kelahiran', 'mendoaka']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'setinggitingginya', 'perhati', 'doa', 'sahabat', 'lahir', 'mendoaka']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>21417</v>
+        <v>31387</v>
       </c>
       <c r="C48" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>luar biasa pak polisi ini mengayomi rakyat dengan sabar semoga sehat terus dan lancar dalam menjalankan tugas men</t>
+          <t>inna lillahi wa inna ilaihi rajiun saya atas nama pribadi dan keluarga besar partai mengucapkan turut</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['luar', 'biasa', 'pak', 'polisi', 'ini', 'mengayomi', 'rakyat', 'dengan', 'sabar', 'semoga', 'sehat', 'terus', 'dan', 'lancar', 'dalam', 'menjalankan', 'tugas', 'men']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'saya', 'atas', 'nama', 'pribadi', 'dan', 'keluarga', 'besar', 'partai', 'mengucapkan', 'turut']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'saya', 'atas', 'nama', 'pribadi', 'dan', 'keluarga', 'besar', 'partai', 'mengucapkan', 'turut']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['polisi', 'mengayomi', 'rakyat', 'sabar', 'semoga', 'sehat', 'lancar', 'menjalankan', 'tugas', 'men']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['polisi', 'ayom', 'rakyat', 'sabar', 'moga', 'sehat', 'lancar', 'jalan', 'tugas', 'men']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'nama', 'pribadi', 'keluarga', 'partai']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'nama', 'pribadi', 'keluarga', 'partai']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>21418</v>
+        <v>31388</v>
       </c>
       <c r="C49" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>selamat tahun baru  semoga kita mampu meneladani perjuangan baginda rasulullah saw memperkenalkan islam yang</t>
+          <t>luar biasa pak polisi ini mengayomi rakyat dengan sabar semoga sehat terus dan lancar dalam menjalankan tugas men</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['selamat', 'tahun', 'baru', 'semoga', 'kita', 'mampu', 'meneladani', 'perjuangan', 'baginda', 'rasulullah', 'saw', 'memperkenalkan', 'islam', 'yang']</t>
+          <t>['luar', 'biasa', 'pak', 'polisi', 'ini', 'mengayomi', 'rakyat', 'dengan', 'sabar', 'semoga', 'sehat', 'terus', 'dan', 'lancar', 'dalam', 'menjalankan', 'tugas', 'men']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['luar', 'biasa', 'pak', 'polisi', 'ini', 'mengayomi', 'rakyat', 'dengan', 'sabar', 'semoga', 'sehat', 'terus', 'dan', 'lancar', 'dalam', 'menjalankan', 'tugas', 'men']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['selamat', 'semoga', 'meneladani', 'perjuangan', 'baginda', 'rasulullah', 'saw', 'memperkenalkan', 'islam']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['selamat', 'moga', 'teladan', 'juang', 'baginda', 'rasulullah', 'saw', 'kenal', 'islam']</t>
+          <t>['polisi', 'mengayomi', 'rakyat', 'sabar', 'semoga', 'sehat', 'lancar', 'menjalankan', 'tugas', 'men']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['polisi', 'ayom', 'rakyat', 'sabar', 'moga', 'sehat', 'lancar', 'jalan', 'tugas', 'men']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>21419</v>
+        <v>31389</v>
       </c>
       <c r="C50" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>saya dan keluarga besar partai turut berduka cita sedalamdalamnya atas meninggalnya ibu siti habibah ib</t>
+          <t>selamat tahun baru  semoga kita mampu meneladani perjuangan baginda rasulullah saw memperkenalkan islam yang</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['saya', 'dan', 'keluarga', 'besar', 'partai', 'turut', 'berduka', 'cita', 'sedalamdalamnya', 'atas', 'meninggalnya', 'ibu', 'siti', 'habibah', 'ib']</t>
+          <t>['selamat', 'tahun', 'baru', 'semoga', 'kita', 'mampu', 'meneladani', 'perjuangan', 'baginda', 'rasulullah', 'saw', 'memperkenalkan', 'islam', 'yang']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['selamat', 'tahun', 'baru', 'semoga', 'kita', 'mampu', 'meneladani', 'perjuangan', 'baginda', 'rasulullah', 'saw', 'memperkenalkan', 'islam', 'yang']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['keluarga', 'partai', 'berduka', 'cita', 'sedalamdalamnya', 'meninggalnya', 'siti', 'habibah', 'ib']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['keluarga', 'partai', 'duka', 'cita', 'sedalamdalamnya', 'tinggal', 'siti', 'habibah', 'ib']</t>
+          <t>['selamat', 'semoga', 'meneladani', 'perjuangan', 'baginda', 'rasulullah', 'saw', 'memperkenalkan', 'islam']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['selamat', 'moga', 'teladan', 'juang', 'baginda', 'rasulullah', 'saw', 'kenal', 'islam']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>21420</v>
+        <v>31390</v>
       </c>
       <c r="C51" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>berbahagia merayakan kemerdekaan republik indonesia ke bersama warga kampung ciriun dan kampung cimpaeun terima</t>
+          <t>saya dan keluarga besar partai turut berduka cita sedalamdalamnya atas meninggalnya ibu siti habibah ib</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['berbahagia', 'merayakan', 'kemerdekaan', 'republik', 'indonesia', 'ke', 'bersama', 'warga', 'kampung', 'ciriun', 'dan', 'kampung', 'cimpaeun', 'terima']</t>
+          <t>['saya', 'dan', 'keluarga', 'besar', 'partai', 'turut', 'berduka', 'cita', 'sedalamdalamnya', 'atas', 'meninggalnya', 'ibu', 'siti', 'habibah', 'ib']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['saya', 'dan', 'keluarga', 'besar', 'partai', 'turut', 'berduka', 'cita', 'sedalamdalamnya', 'atas', 'meninggalnya', 'ibu', 'siti', 'habibah', 'ib']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['berbahagia', 'merayakan', 'kemerdekaan', 'republik', 'indonesia', 'warga', 'kampung', 'ciriun', 'kampung', 'cimpaeun', 'terima']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['bahagia', 'raya', 'merdeka', 'republik', 'indonesia', 'warga', 'kampung', 'ciriun', 'kampung', 'cimpaeun', 'terima']</t>
+          <t>['keluarga', 'partai', 'berduka', 'cita', 'sedalamdalamnya', 'meninggalnya', 'siti', 'habibah', 'ib']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['keluarga', 'partai', 'duka', 'cita', 'sedalamdalamnya', 'tinggal', 'siti', 'habibah', 'ib']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>21421</v>
+        <v>31391</v>
       </c>
       <c r="C52" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>dirgahayu republik indonesia ke insya allah selama hayat dikandung badan akan selalu berjuang dengan semangat</t>
+          <t>berbahagia merayakan kemerdekaan republik indonesia ke bersama warga kampung ciriun dan kampung cimpaeun terima</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['dirgahayu', 'republik', 'indonesia', 'ke', 'insya', 'allah', 'selama', 'hayat', 'dikandung', 'badan', 'akan', 'selalu', 'berjuang', 'dengan', 'semangat']</t>
+          <t>['berbahagia', 'merayakan', 'kemerdekaan', 'republik', 'indonesia', 'ke', 'bersama', 'warga', 'kampung', 'ciriun', 'dan', 'kampung', 'cimpaeun', 'terima']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['berbahagia', 'merayakan', 'kemerdekaan', 'republik', 'indonesia', 'ke', 'bersama', 'warga', 'kampung', 'ciriun', 'dan', 'kampung', 'cimpaeun', 'terima']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['dirgahayu', 'republik', 'indonesia', 'insya', 'allah', 'hayat', 'dikandung', 'badan', 'berjuang', 'semangat']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['dirgahayu', 'republik', 'indonesia', 'insya', 'allah', 'hayat', 'kandung', 'badan', 'juang', 'semangat']</t>
+          <t>['berbahagia', 'merayakan', 'kemerdekaan', 'republik', 'indonesia', 'warga', 'kampung', 'ciriun', 'kampung', 'cimpaeun', 'terima']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['bahagia', 'raya', 'merdeka', 'republik', 'indonesia', 'warga', 'kampung', 'ciriun', 'kampung', 'cimpaeun', 'terima']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>21422</v>
+        <v>31392</v>
       </c>
       <c r="C53" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>selamat ulang tahun semoga selalu sehat dan disukseskan apa yang direncanakan</t>
+          <t>dirgahayu republik indonesia ke insya allah selama hayat dikandung badan akan selalu berjuang dengan semangat</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'tahun', 'semoga', 'selalu', 'sehat', 'dan', 'disukseskan', 'apa', 'yang', 'direncanakan']</t>
+          <t>['dirgahayu', 'republik', 'indonesia', 'ke', 'insya', 'allah', 'selama', 'hayat', 'dikandung', 'badan', 'akan', 'selalu', 'berjuang', 'dengan', 'semangat']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['dirgahayu', 'republik', 'indonesia', 'ke', 'insya', 'allah', 'selama', 'hayat', 'dikandung', 'badan', 'akan', 'selalu', 'berjuang', 'dengan', 'semangat']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'semoga', 'sehat', 'disukseskan', 'direncanakan']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'moga', 'sehat', 'sukses', 'rencana']</t>
+          <t>['dirgahayu', 'republik', 'indonesia', 'insya', 'allah', 'hayat', 'dikandung', 'badan', 'berjuang', 'semangat']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['dirgahayu', 'republik', 'indonesia', 'insya', 'allah', 'hayat', 'kandung', 'badan', 'juang', 'semangat']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>21423</v>
+        <v>31393</v>
       </c>
       <c r="C54" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>selamat hari gerakan pramuka ke terus bergerak dan senantiasa melahirkan tunastunas muda yang kuat dan bermart</t>
+          <t>selamat ulang tahun semoga selalu sehat dan disukseskan apa yang direncanakan</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['selamat', 'hari', 'gerakan', 'pramuka', 'ke', 'terus', 'bergerak', 'dan', 'senantiasa', 'melahirkan', 'tunastunas', 'muda', 'yang', 'kuat', 'dan', 'bermart']</t>
+          <t>['selamat', 'ulang', 'tahun', 'semoga', 'selalu', 'sehat', 'dan', 'disukseskan', 'apa', 'yang', 'direncanakan']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['selamat', 'ulang', 'tahun', 'semoga', 'selalu', 'sehat', 'dan', 'disukseskan', 'apa', 'yang', 'direncanakan']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['selamat', 'gerakan', 'pramuka', 'bergerak', 'senantiasa', 'melahirkan', 'tunastunas', 'muda', 'kuat', 'bermart']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['selamat', 'gera', 'pramuka', 'gerak', 'senantiasa', 'lahir', 'tunastunas', 'muda', 'kuat', 'bermart']</t>
+          <t>['selamat', 'ulang', 'semoga', 'sehat', 'disukseskan', 'direncanakan']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['selamat', 'ulang', 'moga', 'sehat', 'sukses', 'rencana']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>21424</v>
+        <v>31394</v>
       </c>
       <c r="C55" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>saya mengajak para sahabat untuk mendoakan sodara kita jamaah haji semoga allah memberikan kesehatan dan kekuata</t>
+          <t>selamat hari gerakan pramuka ke terus bergerak dan senantiasa melahirkan tunastunas muda yang kuat dan bermart</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['saya', 'mengajak', 'para', 'sahabat', 'untuk', 'mendoakan', 'sodara', 'kita', 'jamaah', 'haji', 'semoga', 'allah', 'memberikan', 'kesehatan', 'dan', 'kekuata']</t>
+          <t>['selamat', 'hari', 'gerakan', 'pramuka', 'ke', 'terus', 'bergerak', 'dan', 'senantiasa', 'melahirkan', 'tunastunas', 'muda', 'yang', 'kuat', 'dan', 'bermart']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['selamat', 'hari', 'gerakan', 'pramuka', 'ke', 'terus', 'bergerak', 'dan', 'senantiasa', 'melahirkan', 'tunastunas', 'muda', 'yang', 'kuat', 'dan', 'bermart']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['mengajak', 'sahabat', 'mendoakan', 'sodara', 'jamaah', 'haji', 'semoga', 'allah', 'kesehatan', 'kekuata']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['ajak', 'sahabat', 'doa', 'sodara', 'jamaah', 'haji', 'moga', 'allah', 'sehat', 'kekuata']</t>
+          <t>['selamat', 'gerakan', 'pramuka', 'bergerak', 'senantiasa', 'melahirkan', 'tunastunas', 'muda', 'kuat', 'bermart']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['selamat', 'gera', 'pramuka', 'gerak', 'senantiasa', 'lahir', 'tunastunas', 'muda', 'kuat', 'bermart']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>21425</v>
+        <v>31395</v>
       </c>
       <c r="C56" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">qurban bukan lah sematamata tentang menyembelih hewan qurban adalah bentuk ketaatan dan ketaqwaan seorang hamba </t>
+          <t>saya mengajak para sahabat untuk mendoakan sodara kita jamaah haji semoga allah memberikan kesehatan dan kekuata</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['qurban', 'bukan', 'lah', 'sematamata', 'tentang', 'menyembelih', 'hewan', 'qurban', 'adalah', 'bentuk', 'ketaatan', 'dan', 'ketaqwaan', 'seorang', 'hamba']</t>
+          <t>['saya', 'mengajak', 'para', 'sahabat', 'untuk', 'mendoakan', 'sodara', 'kita', 'jamaah', 'haji', 'semoga', 'allah', 'memberikan', 'kesehatan', 'dan', 'kekuata']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['saya', 'mengajak', 'para', 'sahabat', 'untuk', 'mendoakan', 'saudara', 'kita', 'jamaah', 'haji', 'semoga', 'allah', 'memberikan', 'kesehatan', 'dan', 'kekuata']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['qurban', 'sematamata', 'menyembelih', 'hewan', 'qurban', 'bentuk', 'ketaatan', 'ketaqwaan', 'hamba']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['qurban', 'sematamata', 'sembelih', 'hewan', 'qurban', 'bentuk', 'taat', 'ketaqwaan', 'hamba']</t>
+          <t>['mengajak', 'sahabat', 'mendoakan', 'saudara', 'jamaah', 'haji', 'semoga', 'allah', 'kesehatan', 'kekuata']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['ajak', 'sahabat', 'doa', 'saudara', 'jamaah', 'haji', 'moga', 'allah', 'sehat', 'kekuata']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>21426</v>
+        <v>31396</v>
       </c>
       <c r="C57" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">selamat hari raya idul adha </t>
+          <t xml:space="preserve">qurban bukan lah sematamata tentang menyembelih hewan qurban adalah bentuk ketaatan dan ketaqwaan seorang hamba </t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['selamat', 'hari', 'raya', 'idul', 'adha']</t>
+          <t>['qurban', 'bukan', 'lah', 'sematamata', 'tentang', 'menyembelih', 'hewan', 'qurban', 'adalah', 'bentuk', 'ketaatan', 'dan', 'ketaqwaan', 'seorang', 'hamba']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['kurban', 'bukan', 'lah', 'sematamata', 'tentang', 'menyembelih', 'hewan', 'kurban', 'adalah', 'bentuk', 'ketaatan', 'dan', 'ketakwaan', 'seorang', 'hamba']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['selamat', 'raya', 'idul', 'adha']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['selamat', 'raya', 'idul', 'adha']</t>
+          <t>['kurban', 'sematamata', 'menyembelih', 'hewan', 'kurban', 'bentuk', 'ketaatan', 'ketakwaan', 'hamba']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['kurban', 'sematamata', 'sembelih', 'hewan', 'kurban', 'bentuk', 'taat', 'takwa', 'hamba']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>21427</v>
+        <v>31397</v>
       </c>
       <c r="C58" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">saya mengajak sahabat dan saudarasaudara sekalian untuk turut serta mendoakan almarhum agar mendapat tempat yang </t>
+          <t xml:space="preserve">selamat hari raya idul adha </t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['saya', 'mengajak', 'sahabat', 'dan', 'saudarasaudara', 'sekalian', 'untuk', 'turut', 'serta', 'mendoakan', 'almarhum', 'agar', 'mendapat', 'tempat', 'yang']</t>
+          <t>['selamat', 'hari', 'raya', 'idul', 'adha']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['selamat', 'hari', 'raya', 'idul', 'adha']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['mengajak', 'sahabat', 'saudarasaudara', 'mendoakan', 'almarhum']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['ajak', 'sahabat', 'saudarasaudara', 'doa', 'almarhum']</t>
+          <t>['selamat', 'raya', 'idul', 'adha']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['selamat', 'raya', 'idul', 'adha']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>21428</v>
+        <v>31398</v>
       </c>
       <c r="C59" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>pesan beliau selalu tertanam di benak saya mas prabowo harus selalu bela rakyat mas prabowo harus selalu bela rak</t>
+          <t xml:space="preserve">saya mengajak sahabat dan saudarasaudara sekalian untuk turut serta mendoakan almarhum agar mendapat tempat yang </t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['pesan', 'beliau', 'selalu', 'tertanam', 'di', 'benak', 'saya', 'mas', 'prabowo', 'harus', 'selalu', 'bela', 'rakyat', 'mas', 'prabowo', 'harus', 'selalu', 'bela', 'rak']</t>
+          <t>['saya', 'mengajak', 'sahabat', 'dan', 'saudarasaudara', 'sekalian', 'untuk', 'turut', 'serta', 'mendoakan', 'almarhum', 'agar', 'mendapat', 'tempat', 'yang']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 19 outcomes&gt;</t>
+          <t>['saya', 'mengajak', 'sahabat', 'dan', 'saudarasaudara', 'sekalian', 'untuk', 'turut', 'serta', 'mendoakan', 'almarhum', 'agar', 'mendapat', 'tempat', 'yang']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['pesan', 'beliau', 'tertanam', 'benak', 'mas', 'prabowo', 'bela', 'rakyat', 'mas', 'prabowo', 'bela', 'rak']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['pesan', 'beliau', 'tanam', 'benak', 'mas', 'prabowo', 'bela', 'rakyat', 'mas', 'prabowo', 'bela', 'rak']</t>
+          <t>['mengajak', 'sahabat', 'saudarasaudara', 'mendoakan', 'almarhum']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['ajak', 'sahabat', 'saudarasaudara', 'doa', 'almarhum']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>21429</v>
+        <v>31399</v>
       </c>
       <c r="C60" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">inna lillahi wa inna ilayhi rajiun turut berduka cita atas wafatnya kh maimun zubair di mekkah pada hari ini </t>
+          <t>pesan beliau selalu tertanam di benak saya mas prabowo harus selalu bela rakyat mas prabowo harus selalu bela rak</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'kh', 'maimun', 'zubair', 'di', 'mekkah', 'pada', 'hari', 'ini']</t>
+          <t>['pesan', 'beliau', 'selalu', 'tertanam', 'di', 'benak', 'saya', 'mas', 'prabowo', 'harus', 'selalu', 'bela', 'rakyat', 'mas', 'prabowo', 'harus', 'selalu', 'bela', 'rak']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['pesan', 'beliau', 'selalu', 'tertanam', 'di', 'benak', 'saya', 'mas', 'prabowo', 'harus', 'selalu', 'bela', 'rakyat', 'mas', 'prabowo', 'harus', 'selalu', 'bela', 'rak']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'berduka', 'cita', 'wafatnya', 'kh', 'maimun', 'zubair', 'mekkah']</t>
+          <t>&lt;FreqDist with 13 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'duka', 'cita', 'wafat', 'kh', 'maimun', 'zubair', 'mek']</t>
+          <t>['pesan', 'beliau', 'tertanam', 'benak', 'mas', 'prabowo', 'bela', 'rakyat', 'mas', 'prabowo', 'bela', 'rak']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['pesan', 'beliau', 'tanam', 'benak', 'mas', 'prabowo', 'bela', 'rakyat', 'mas', 'prabowo', 'bela', 'rak']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>21430</v>
+        <v>31400</v>
       </c>
       <c r="C61" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>pencak silat contohnya emas pernah diberikan kepada indonesia melalui ajang asian games saya yakin dan percaya</t>
+          <t xml:space="preserve">inna lillahi wa inna ilayhi rajiun turut berduka cita atas wafatnya kh maimun zubair di mekkah pada hari ini </t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['pencak', 'silat', 'contohnya', 'emas', 'pernah', 'diberikan', 'kepada', 'indonesia', 'melalui', 'ajang', 'asian', 'games', 'saya', 'yakin', 'dan', 'percaya']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'kh', 'maimun', 'zubair', 'di', 'mekkah', 'pada', 'hari', 'ini']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'kh', 'maimun', 'zubair', 'di', 'makkah', 'pada', 'hari', 'ini']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['pencak', 'silat', 'contohnya', 'emas', 'indonesia', 'ajang', 'asian', 'games', 'percaya']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['pencak', 'silat', 'contoh', 'emas', 'indonesia', 'ajang', 'asi', 'games', 'percaya']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'berduka', 'cita', 'wafatnya', 'kh', 'maimun', 'zubair', 'makkah']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'duka', 'cita', 'wafat', 'kh', 'maimun', 'zubair', 'makkah']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>21431</v>
+        <v>31401</v>
       </c>
       <c r="C62" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>tidak hanya kita tuntut secara prestasi untuk mengharumkan nama bangsa indonesia akan tetapi nasib atlet ke depan</t>
+          <t>pencak silat contohnya emas pernah diberikan kepada indonesia melalui ajang asian games saya yakin dan percaya</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['tidak', 'hanya', 'kita', 'tuntut', 'secara', 'prestasi', 'untuk', 'mengharumkan', 'nama', 'bangsa', 'indonesia', 'akan', 'tetapi', 'nasib', 'atlet', 'ke', 'depan']</t>
+          <t>['pencak', 'silat', 'contohnya', 'emas', 'pernah', 'diberikan', 'kepada', 'indonesia', 'melalui', 'ajang', 'asian', 'games', 'saya', 'yakin', 'dan', 'percaya']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['pencak', 'silat', 'contohnya', 'emas', 'pernah', 'diberikan', 'kepada', 'indonesia', 'melalui', 'ajang', 'asian', 'games', 'saya', 'yakin', 'dan', 'percaya']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['tuntut', 'prestasi', 'mengharumkan', 'nama', 'bangsa', 'indonesia', 'nasib', 'atlet']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['tuntut', 'prestasi', 'harum', 'nama', 'bangsa', 'indonesia', 'nasib', 'atlet']</t>
+          <t>['pencak', 'silat', 'contohnya', 'emas', 'indonesia', 'ajang', 'asian', 'games', 'percaya']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['pencak', 'silat', 'contoh', 'emas', 'indonesia', 'ajang', 'asi', 'games', 'percaya']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21432</v>
+        <v>31402</v>
       </c>
       <c r="C63" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>tadi sore saya di undang untuk melihat latihan atlet taekwondo indonesia kita selalu percaya potensi atlet indones</t>
+          <t>tidak hanya kita tuntut secara prestasi untuk mengharumkan nama bangsa indonesia akan tetapi nasib atlet ke depan</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['tadi', 'sore', 'saya', 'di', 'undang', 'untuk', 'melihat', 'latihan', 'atlet', 'taekwondo', 'indonesia', 'kita', 'selalu', 'percaya', 'potensi', 'atlet', 'indones']</t>
+          <t>['tidak', 'hanya', 'kita', 'tuntut', 'secara', 'prestasi', 'untuk', 'mengharumkan', 'nama', 'bangsa', 'indonesia', 'akan', 'tetapi', 'nasib', 'atlet', 'ke', 'depan']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['tidak', 'hanya', 'kita', 'tuntut', 'secara', 'prestasi', 'untuk', 'mengharumkan', 'nama', 'bangsa', 'indonesia', 'akan', 'tetapi', 'nasib', 'atlet', 'ke', 'depan']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['sore', 'undang', 'latihan', 'atlet', 'taekwondo', 'indonesia', 'percaya', 'potensi', 'atlet', 'indones']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['sore', 'undang', 'latih', 'atlet', 'taekwondo', 'indonesia', 'percaya', 'potensi', 'atlet', 'indones']</t>
+          <t>['tuntut', 'prestasi', 'mengharumkan', 'nama', 'bangsa', 'indonesia', 'nasib', 'atlet']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['tuntut', 'prestasi', 'harum', 'nama', 'bangsa', 'indonesia', 'nasib', 'atlet']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21433</v>
+        <v>31403</v>
       </c>
       <c r="C64" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">untuk itu jika ada pertanyaan dan diskusi yang tidak sempat kita jalin melalui twitter dan fanpage pribadi saya </t>
+          <t>tadi sore saya di undang untuk melihat latihan atlet taekwondo indonesia kita selalu percaya potensi atlet indones</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['untuk', 'itu', 'jika', 'ada', 'pertanyaan', 'dan', 'diskusi', 'yang', 'tidak', 'sempat', 'kita', 'jalin', 'melalui', 'twitter', 'dan', 'fanpage', 'pribadi', 'saya']</t>
+          <t>['tadi', 'sore', 'saya', 'di', 'undang', 'untuk', 'melihat', 'latihan', 'atlet', 'taekwondo', 'indonesia', 'kita', 'selalu', 'percaya', 'potensi', 'atlet', 'indones']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['tadi', 'sore', 'saya', 'di', 'undang', 'untuk', 'melihat', 'latihan', 'atlet', 'taekwondo', 'indonesia', 'kita', 'selalu', 'percaya', 'potensi', 'atlet', 'indonesia']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['diskusi', 'jalin', 'twitter', 'fanpage', 'pribadi']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['diskusi', 'jalin', 'twitter', 'fanpage', 'pribadi']</t>
+          <t>['sore', 'undang', 'latihan', 'atlet', 'taekwondo', 'indonesia', 'percaya', 'potensi', 'atlet', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['sore', 'undang', 'latih', 'atlet', 'taekwondo', 'indonesia', 'percaya', 'potensi', 'atlet', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>21434</v>
+        <v>31404</v>
       </c>
       <c r="C65" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>selamat malam sahabat selamat berakhir pekan pada kesempatan ini saya ingin menyampaikan bahwa mulai ke depan say</t>
+          <t xml:space="preserve">untuk itu jika ada pertanyaan dan diskusi yang tidak sempat kita jalin melalui twitter dan fanpage pribadi saya </t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['selamat', 'malam', 'sahabat', 'selamat', 'berakhir', 'pekan', 'pada', 'kesempatan', 'ini', 'saya', 'ingin', 'menyampaikan', 'bahwa', 'mulai', 'ke', 'depan', 'say']</t>
+          <t>['untuk', 'itu', 'jika', 'ada', 'pertanyaan', 'dan', 'diskusi', 'yang', 'tidak', 'sempat', 'kita', 'jalin', 'melalui', 'twitter', 'dan', 'fanpage', 'pribadi', 'saya']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['untuk', 'itu', 'jika', 'ada', 'pertanyaan', 'dan', 'diskusi', 'yang', 'tidak', 'sempat', 'kita', 'jalin', 'melalui', 'twitter', 'dan', 'fanpage', 'pribadi', 'saya']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['selamat', 'malam', 'sahabat', 'selamat', 'pekan', 'kesempatan', 'say']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['selamat', 'malam', 'sahabat', 'selamat', 'pekan', 'sempat', 'say']</t>
+          <t>['diskusi', 'jalin', 'twitter', 'fanpage', 'pribadi']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['diskusi', 'jalin', 'twitter', 'fanpage', 'pribadi']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>21435</v>
+        <v>31405</v>
       </c>
       <c r="C66" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>saya mengucapkan selamat hari raya idul fitri   semoga segala amal ibadah kita diterima oleh allah swt</t>
+          <t>selamat malam sahabat selamat berakhir pekan pada kesempatan ini saya ingin menyampaikan bahwa mulai ke depan say</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['saya', 'mengucapkan', 'selamat', 'hari', 'raya', 'idul', 'fitri', 'semoga', 'segala', 'amal', 'ibadah', 'kita', 'diterima', 'oleh', 'allah', 'swt']</t>
+          <t>['selamat', 'malam', 'sahabat', 'selamat', 'berakhir', 'pekan', 'pada', 'kesempatan', 'ini', 'saya', 'ingin', 'menyampaikan', 'bahwa', 'mulai', 'ke', 'depan', 'say']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['selamat', 'malam', 'sahabat', 'selamat', 'berakhir', 'pekan', 'pada', 'kesempatan', 'ini', 'saya', 'ingin', 'menyampaikan', 'bahwa', 'mulai', 'ke', 'depan', 'sayang']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['selamat', 'raya', 'idul', 'fitri', 'semoga', 'amal', 'ibadah', 'diterima', 'allah', 'swt']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['selamat', 'raya', 'idul', 'fitri', 'moga', 'amal', 'ibadah', 'terima', 'allah', 'swt']</t>
+          <t>['selamat', 'malam', 'sahabat', 'selamat', 'pekan', 'kesempatan', 'sayang']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['selamat', 'malam', 'sahabat', 'selamat', 'pekan', 'sempat', 'sayang']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>21436</v>
+        <v>31406</v>
       </c>
       <c r="C67" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">inna lillahi wa inna ilaihi rajiun saya prabowo subianto menyampaikan rasa duka cita saya yang mendalam atas </t>
+          <t>saya mengucapkan selamat hari raya idul fitri   semoga segala amal ibadah kita diterima oleh allah swt</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'saya', 'prabowo', 'subianto', 'menyampaikan', 'rasa', 'duka', 'cita', 'saya', 'yang', 'mendalam', 'atas']</t>
+          <t>['saya', 'mengucapkan', 'selamat', 'hari', 'raya', 'idul', 'fitri', 'semoga', 'segala', 'amal', 'ibadah', 'kita', 'diterima', 'oleh', 'allah', 'swt']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['saya', 'mengucapkan', 'selamat', 'hari', 'raya', 'idul', 'fitri', 'semoga', 'segala', 'amal', 'ibadah', 'kita', 'diterima', 'oleh', 'allah', 'subhanahu, wa, taala']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'prabowo', 'subianto', 'duka', 'cita', 'mendalam']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'prabowo', 'subianto', 'duka', 'cita', 'dalam']</t>
+          <t>['selamat', 'raya', 'idul', 'fitri', 'semoga', 'amal', 'ibadah', 'diterima', 'allah', 'subhanahu, wa, taala']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['selamat', 'raya', 'idul', 'fitri', 'moga', 'amal', 'ibadah', 'terima', 'allah', 'subhanahu wa taala']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>21437</v>
+        <v>31407</v>
       </c>
       <c r="C68" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>semoga arwah almarhumah diterima dan diberikan tempat terbaik di sisi allah swt dan semoga bapak beser</t>
+          <t xml:space="preserve">inna lillahi wa inna ilaihi rajiun saya prabowo subianto menyampaikan rasa duka cita saya yang mendalam atas </t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['semoga', 'arwah', 'almarhumah', 'diterima', 'dan', 'diberikan', 'tempat', 'terbaik', 'di', 'sisi', 'allah', 'swt', 'dan', 'semoga', 'bapak', 'beser']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'saya', 'prabowo', 'subianto', 'menyampaikan', 'rasa', 'duka', 'cita', 'saya', 'yang', 'mendalam', 'atas']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'saya', 'prabowo', 'subianto', 'menyampaikan', 'rasa', 'duka', 'cita', 'saya', 'yang', 'mendalam', 'atas']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['semoga', 'arwah', 'almarhumah', 'diterima', 'terbaik', 'sisi', 'allah', 'swt', 'semoga', 'beser']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['moga', 'arwah', 'almarhumah', 'terima', 'baik', 'sisi', 'allah', 'swt', 'moga', 'beser']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'prabowo', 'subianto', 'duka', 'cita', 'mendalam']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'prabowo', 'subianto', 'duka', 'cita', 'dalam']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>21438</v>
+        <v>31408</v>
       </c>
       <c r="C69" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ibu negara yang telah memberikan sumbangan dan dharma baktinya kepada bangsa ini sebagai pendamping setia presiden</t>
+          <t>semoga arwah almarhumah diterima dan diberikan tempat terbaik di sisi allah swt dan semoga bapak beser</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['ibu', 'negara', 'yang', 'telah', 'memberikan', 'sumbangan', 'dan', 'dharma', 'baktinya', 'kepada', 'bangsa', 'ini', 'sebagai', 'pendamping', 'setia', 'presiden']</t>
+          <t>['semoga', 'arwah', 'almarhumah', 'diterima', 'dan', 'diberikan', 'tempat', 'terbaik', 'di', 'sisi', 'allah', 'swt', 'dan', 'semoga', 'bapak', 'beser']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['semoga', 'arwah', 'almarhumah', 'diterima', 'dan', 'diberikan', 'tempat', 'terbaik', 'di', 'sisi', 'allah', 'subhanahu, wa, taala', 'dan', 'semoga', 'bapak', 'beser']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['negara', 'sumbangan', 'dharma', 'baktinya', 'bangsa', 'pendamping', 'setia', 'presiden']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['negara', 'sumbang', 'dharma', 'bakti', 'bangsa', 'damping', 'setia', 'presiden']</t>
+          <t>['semoga', 'arwah', 'almarhumah', 'diterima', 'terbaik', 'sisi', 'allah', 'subhanahu, wa, taala', 'semoga', 'beser']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['moga', 'arwah', 'almarhumah', 'terima', 'baik', 'sisi', 'allah', 'subhanahu wa taala', 'moga', 'beser']</t>
         </is>
       </c>
     </row>
@@ -2923,30 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>21439</v>
+        <v>31409</v>
       </c>
       <c r="C70" t="n">
-        <v>261</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
+        <v>364</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>ibu negara yang telah memberikan sumbangan dan dharma baktinya kepada bangsa ini sebagai pendamping setia presiden</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ibu', 'negara', 'yang', 'telah', 'memberikan', 'sumbangan', 'dan', 'dharma', 'baktinya', 'kepada', 'bangsa', 'ini', 'sebagai', 'pendamping', 'setia', 'presiden']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['ibu', 'negara', 'yang', 'telah', 'memberikan', 'sumbangan', 'dan', 'darma', 'baktinya', 'kepada', 'bangsa', 'ini', 'sebagai', 'pendamping', 'setia', 'presiden']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['negara', 'sumbangan', 'darma', 'baktinya', 'bangsa', 'pendamping', 'setia', 'presiden']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['negara', 'sumbang', 'darma', 'bakti', 'bangsa', 'damping', 'setia', 'presiden']</t>
         </is>
       </c>
     </row>
@@ -2955,34 +3309,35 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>21440</v>
+        <v>31410</v>
       </c>
       <c r="C71" t="n">
-        <v>261</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>selamat menunaikan ibadah puasa bagi sahabat muslim semoga allah swt menerima ibadah kita dan meningkatkan ketaqwaan kita aamiin</t>
-        </is>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['selamat', 'menunaikan', 'ibadah', 'puasa', 'bagi', 'sahabat', 'muslim', 'semoga', 'allah', 'swt', 'menerima', 'ibadah', 'kita', 'dan', 'meningkatkan', 'ketaqwaan', 'kita', 'aamiin']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['selamat', 'menunaikan', 'ibadah', 'puasa', 'sahabat', 'muslim', 'semoga', 'allah', 'swt', 'menerima', 'ibadah', 'meningkatkan', 'ketaqwaan', 'aamiin']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['selamat', 'tunai', 'ibadah', 'puasa', 'sahabat', 'muslim', 'moga', 'allah', 'swt', 'terima', 'ibadah', 'tingkat', 'ketaqwaan', 'aamiin']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2991,34 +3346,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>21441</v>
+        <v>31411</v>
       </c>
       <c r="C72" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>saya himbau pendukung saya semua agar tetap tenang tidak terprovokasi melakukan tindakan anarkis kita fokus menga</t>
+          <t>selamat menunaikan ibadah puasa bagi sahabat muslim semoga allah swt menerima ibadah kita dan meningkatkan ketaqwaan kita aamiin</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['saya', 'himbau', 'pendukung', 'saya', 'semua', 'agar', 'tetap', 'tenang', 'tidak', 'terprovokasi', 'melakukan', 'tindakan', 'anarkis', 'kita', 'fokus', 'menga']</t>
+          <t>['selamat', 'menunaikan', 'ibadah', 'puasa', 'bagi', 'sahabat', 'muslim', 'semoga', 'allah', 'swt', 'menerima', 'ibadah', 'kita', 'dan', 'meningkatkan', 'ketaqwaan', 'kita', 'aamiin']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['selamat', 'menunaikan', 'ibadah', 'puasa', 'bagi', 'sahabat', 'muslim', 'semoga', 'allah', 'subhanahu, wa, taala', 'menerima', 'ibadah', 'kita', 'dan', 'meningkatkan', 'ketakwaan', 'kita', 'amin']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['himbau', 'pendukung', 'tenang', 'terprovokasi', 'tindakan', 'anarkis', 'fokus', 'menga']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['himbau', 'dukung', 'tenang', 'provokasi', 'tindak', 'anarkis', 'fokus', 'menga']</t>
+          <t>['selamat', 'menunaikan', 'ibadah', 'puasa', 'sahabat', 'muslim', 'semoga', 'allah', 'subhanahu, wa, taala', 'menerima', 'ibadah', 'meningkatkan', 'ketakwaan', 'amin']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['selamat', 'tunai', 'ibadah', 'puasa', 'sahabat', 'muslim', 'moga', 'allah', 'subhanahu wa taala', 'terima', 'ibadah', 'tingkat', 'takwa', 'amin']</t>
         </is>
       </c>
     </row>
@@ -3027,34 +3387,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>21442</v>
+        <v>31412</v>
       </c>
       <c r="C73" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>saya minta saudara saudara sekalian jangan terpancing jangan bertindak berlebihan terus awasi tps amankan  dan</t>
+          <t>saya himbau pendukung saya semua agar tetap tenang tidak terprovokasi melakukan tindakan anarkis kita fokus menga</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['saya', 'minta', 'saudara', 'saudara', 'sekalian', 'jangan', 'terpancing', 'jangan', 'bertindak', 'berlebihan', 'terus', 'awasi', 'tps', 'amankan', 'dan']</t>
+          <t>['saya', 'himbau', 'pendukung', 'saya', 'semua', 'agar', 'tetap', 'tenang', 'tidak', 'terprovokasi', 'melakukan', 'tindakan', 'anarkis', 'kita', 'fokus', 'menga']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['saya', 'himbau', 'pendukung', 'saya', 'semua', 'agar', 'tetap', 'tenang', 'tidak', 'terprovokasi', 'melakukan', 'tindakan', 'anarkis', 'kita', 'fokus', 'menga']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['saudara', 'saudara', 'terpancing', 'bertindak', 'awasi', 'tps', 'amankan']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['saudara', 'saudara', 'pancing', 'tindak', 'awas', 'tps', 'aman']</t>
+          <t>['himbau', 'pendukung', 'tenang', 'terprovokasi', 'tindakan', 'anarkis', 'fokus', 'menga']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['himbau', 'dukung', 'tenang', 'provokasi', 'tindak', 'anarkis', 'fokus', 'menga']</t>
         </is>
       </c>
     </row>
@@ -3063,34 +3428,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>21443</v>
+        <v>31413</v>
       </c>
       <c r="C74" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>mohon semua relawan untuk mengawal kemenanga kita  semua tps dan kecamatan saya tegaskan disini bahwa ada upaya</t>
+          <t>saya minta saudara saudara sekalian jangan terpancing jangan bertindak berlebihan terus awasi tps amankan  dan</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['mohon', 'semua', 'relawan', 'untuk', 'mengawal', 'kemenanga', 'kita', 'semua', 'tps', 'dan', 'kecamatan', 'saya', 'tegaskan', 'disini', 'bahwa', 'ada', 'upaya']</t>
+          <t>['saya', 'minta', 'saudara', 'saudara', 'sekalian', 'jangan', 'terpancing', 'jangan', 'bertindak', 'berlebihan', 'terus', 'awasi', 'tps', 'amankan', 'dan']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['saya', 'meminta', 'saudara', 'saudara', 'sekalian', 'jangan', 'terpancing', 'jangan', 'bertindak', 'berlebihan', 'terus', 'awasi', 'tempat, pemungutan, suara', 'amankan', 'dan']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['mohon', 'relawan', 'mengawal', 'kemenanga', 'tps', 'kecamatan', 'tegaskan', 'upaya']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['mohon', 'rawan', 'awal', 'kemenanga', 'tps', 'camat', 'tegas', 'upaya']</t>
+          <t>['saudara', 'saudara', 'terpancing', 'bertindak', 'awasi', 'tempat, pemungutan, suara', 'amankan']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['saudara', 'saudara', 'pancing', 'tindak', 'awas', 'tempat mungut suara', 'aman']</t>
         </is>
       </c>
     </row>
@@ -3099,34 +3469,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>21444</v>
+        <v>31414</v>
       </c>
       <c r="C75" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>belum lagi banyak diketemukan surat suara yang sudah di coblos tetapi walau demikian hasil exit poll kita di</t>
+          <t>mohon semua relawan untuk mengawal kemenanga kita  semua tps dan kecamatan saya tegaskan disini bahwa ada upaya</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['belum', 'lagi', 'banyak', 'diketemukan', 'surat', 'suara', 'yang', 'sudah', 'di', 'coblos', 'tetapi', 'walau', 'demikian', 'hasil', 'exit', 'poll', 'kita', 'di']</t>
+          <t>['mohon', 'semua', 'relawan', 'untuk', 'mengawal', 'kemenanga', 'kita', 'semua', 'tps', 'dan', 'kecamatan', 'saya', 'tegaskan', 'disini', 'bahwa', 'ada', 'upaya']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['mohon', 'semua', 'relawan', 'untuk', 'mengawal', 'kemenanga', 'kita', 'semua', 'tempat, pemungutan, suara', 'dan', 'kecamatan', 'saya', 'tegaskan', 'di, sini', 'bahwa', 'ada', 'upaya']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['diketemukan', 'surat', 'suara', 'coblos', 'hasil', 'exit', 'poll']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['ketemu', 'surat', 'suara', 'coblos', 'hasil', 'exit', 'poll']</t>
+          <t>['mohon', 'relawan', 'mengawal', 'kemenanga', 'tempat, pemungutan, suara', 'kecamatan', 'tegaskan', 'di, sini', 'upaya']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['mohon', 'rawan', 'awal', 'kemenanga', 'tempat mungut suara', 'camat', 'tegas', 'di sini', 'upaya']</t>
         </is>
       </c>
     </row>
@@ -3135,34 +3510,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>21445</v>
+        <v>31415</v>
       </c>
       <c r="C76" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>pada proses pemilu kali ini banyak kejadian yang merugikan pihak banyak kertas suara yang tidak sampai banyak</t>
+          <t>belum lagi banyak diketemukan surat suara yang sudah di coblos tetapi walau demikian hasil exit poll kita di</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['pada', 'proses', 'pemilu', 'kali', 'ini', 'banyak', 'kejadian', 'yang', 'merugikan', 'pihak', 'banyak', 'kertas', 'suara', 'yang', 'tidak', 'sampai', 'banyak']</t>
+          <t>['belum', 'lagi', 'banyak', 'diketemukan', 'surat', 'suara', 'yang', 'sudah', 'di', 'coblos', 'tetapi', 'walau', 'demikian', 'hasil', 'exit', 'poll', 'kita', 'di']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['belum', 'lagi', 'banyak', 'diketemukan', 'surat', 'suara', 'yang', 'sudah', 'di', 'coblos', 'tetapi', 'walau', 'demikian', 'hasil', 'exit', 'pol', 'kita', 'di']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['proses', 'pemilu', 'kali', 'kejadian', 'merugikan', 'kertas', 'suara']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['proses', 'milu', 'kali', 'jadi', 'rugi', 'kertas', 'suara']</t>
+          <t>['diketemukan', 'surat', 'suara', 'coblos', 'hasil', 'exit', 'pol']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['ketemu', 'surat', 'suara', 'coblos', 'hasil', 'exit', 'pol']</t>
         </is>
       </c>
     </row>
@@ -3171,34 +3551,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>21446</v>
+        <v>31416</v>
       </c>
       <c r="C77" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>bismillahirramanirrahiim semoga allah swt merestui dan meridhoi perjuangan kita semua aamiin</t>
+          <t>pada proses pemilu kali ini banyak kejadian yang merugikan pihak banyak kertas suara yang tidak sampai banyak</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['bismillahirramanirrahiim', 'semoga', 'allah', 'swt', 'merestui', 'dan', 'meridhoi', 'perjuangan', 'kita', 'semua', 'aamiin']</t>
+          <t>['pada', 'proses', 'pemilu', 'kali', 'ini', 'banyak', 'kejadian', 'yang', 'merugikan', 'pihak', 'banyak', 'kertas', 'suara', 'yang', 'tidak', 'sampai', 'banyak']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['pada', 'proses', 'pemilihan, umum', 'kali', 'ini', 'banyak', 'kejadian', 'yang', 'merugikan', 'pihak', 'banyak', 'kertas', 'suara', 'yang', 'tidak', 'sampai', 'banyak']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['bismillahirramanirrahiim', 'semoga', 'allah', 'swt', 'merestui', 'meridhoi', 'perjuangan', 'aamiin']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['bismillahirramanirrahiim', 'moga', 'allah', 'swt', 'restu', 'meridhoi', 'juang', 'aamiin']</t>
+          <t>['proses', 'pemilihan, umum', 'kali', 'kejadian', 'merugikan', 'kertas', 'suara']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['proses', 'pilih umum', 'kali', 'jadi', 'rugi', 'kertas', 'suara']</t>
         </is>
       </c>
     </row>
@@ -3207,34 +3592,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>21447</v>
+        <v>31417</v>
       </c>
       <c r="C78" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>aamiin ya allah</t>
+          <t>bismillahirramanirrahiim semoga allah swt merestui dan meridhoi perjuangan kita semua aamiin</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['aamiin', 'ya', 'allah']</t>
+          <t>['bismillahirramanirrahiim', 'semoga', 'allah', 'swt', 'merestui', 'dan', 'meridhoi', 'perjuangan', 'kita', 'semua', 'aamiin']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['bismillahirramanirrahiim', 'semoga', 'allah', 'subhanahu, wa, taala', 'merestui', 'dan', 'meridai', 'perjuangan', 'kita', 'semua', 'amin']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['aamiin', 'allah']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['aamiin', 'allah']</t>
+          <t>['bismillahirramanirrahiim', 'semoga', 'allah', 'subhanahu, wa, taala', 'merestui', 'meridai', 'perjuangan', 'amin']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['bismillahirramanirrahiim', 'moga', 'allah', 'subhanahu wa taala', 'restu', 'rida', 'juang', 'amin']</t>
         </is>
       </c>
     </row>
@@ -3243,34 +3633,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>21448</v>
+        <v>31418</v>
       </c>
       <c r="C79" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>semoga balasan saya ini bisa mewakili tweet sahabat yang belum terbalas jangan sampai terputus silaturahmi jangan</t>
+          <t>aamiin ya allah</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['semoga', 'balasan', 'saya', 'ini', 'bisa', 'mewakili', 'tweet', 'sahabat', 'yang', 'belum', 'terbalas', 'jangan', 'sampai', 'terputus', 'silaturahmi', 'jangan']</t>
+          <t>['aamiin', 'ya', 'allah']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['amin', 'ya', 'allah']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['semoga', 'balasan', 'mewakili', 'tweet', 'sahabat', 'terbalas', 'terputus', 'silaturahmi']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['moga', 'balas', 'wakil', 'tweet', 'sahabat', 'balas', 'putus', 'silaturahmi']</t>
+          <t>['amin', 'allah']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['amin', 'allah']</t>
         </is>
       </c>
     </row>
@@ -3279,34 +3674,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>21449</v>
+        <v>31419</v>
       </c>
       <c r="C80" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>rt pak ko nama kota saya ciamis ga di sebutin tega nih ciamis juga mau prubahan pak</t>
+          <t>semoga balasan saya ini bisa mewakili tweet sahabat yang belum terbalas jangan sampai terputus silaturahmi jangan</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['rt', 'pak', 'ko', 'nama', 'kota', 'saya', 'ciamis', 'ga', 'di', 'sebutin', 'tega', 'nih', 'ciamis', 'juga', 'mau', 'prubahan', 'pak']</t>
+          <t>['semoga', 'balasan', 'saya', 'ini', 'bisa', 'mewakili', 'tweet', 'sahabat', 'yang', 'belum', 'terbalas', 'jangan', 'sampai', 'terputus', 'silaturahmi', 'jangan']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['semoga', 'balasan', 'saya', 'ini', 'bisa', 'mewakili', 'twit', 'sahabat', 'yang', 'belum', 'terbalas', 'jangan', 'sampai', 'terputus', 'silaturahmi', 'jangan']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['ko', 'nama', 'kota', 'ciamis', 'sebutin', 'tega', 'ciamis', 'prubahan']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['ko', 'nama', 'kota', 'ciamis', 'sebutin', 'tega', 'ciamis', 'prubahan']</t>
+          <t>['semoga', 'balasan', 'mewakili', 'twit', 'sahabat', 'terbalas', 'terputus', 'silaturahmi']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['moga', 'balas', 'wakil', 'twit', 'sahabat', 'balas', 'putus', 'silaturahmi']</t>
         </is>
       </c>
     </row>
@@ -3315,34 +3715,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>21450</v>
+        <v>31420</v>
       </c>
       <c r="C81" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>rakyat ingin harga sembako murah dan lapangan kerja mudah</t>
+          <t>rt pak ko nama kota saya ciamis ga di sebutin tega nih ciamis juga mau prubahan pak</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['rakyat', 'ingin', 'harga', 'sembako', 'murah', 'dan', 'lapangan', 'kerja', 'mudah']</t>
+          <t>['rt', 'pak', 'ko', 'nama', 'kota', 'saya', 'ciamis', 'ga', 'di', 'sebutin', 'tega', 'nih', 'ciamis', 'juga', 'mau', 'prubahan', 'pak']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'pak', 'kok', 'nama', 'kota', 'saya', 'ciamis', 'tidak', 'di', 'sebutkan', 'tega', 'nih', 'ciamis', 'juga', 'mau', 'prubahan', 'pak']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['rakyat', 'harga', 'sembako', 'murah', 'lapangan', 'kerja', 'mudah']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['rakyat', 'harga', 'sembako', 'murah', 'lapang', 'kerja', 'mudah']</t>
+          <t>['nama', 'kota', 'ciamis', 'sebutkan', 'tega', 'ciamis', 'prubahan']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['nama', 'kota', 'ciamis', 'sebut', 'tega', 'ciamis', 'prubahan']</t>
         </is>
       </c>
     </row>
@@ -3351,34 +3756,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>21451</v>
+        <v>31421</v>
       </c>
       <c r="C82" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>terima kasih</t>
+          <t>rakyat ingin harga sembako murah dan lapangan kerja mudah</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['terima', 'kasih']</t>
+          <t>['rakyat', 'ingin', 'harga', 'sembako', 'murah', 'dan', 'lapangan', 'kerja', 'mudah']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rakyat', 'ingin', 'harga', 'sembako', 'murah', 'dan', 'lapangan', 'kerja', 'mudah']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['terima', 'kasih']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['terima', 'kasih']</t>
+          <t>['rakyat', 'harga', 'sembako', 'murah', 'lapangan', 'kerja', 'mudah']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['rakyat', 'harga', 'sembako', 'murah', 'lapang', 'kerja', 'mudah']</t>
         </is>
       </c>
     </row>
@@ -3387,34 +3797,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>21452</v>
+        <v>31422</v>
       </c>
       <c r="C83" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>hukum harus ditegakkan tanpa tebang pilih</t>
+          <t>terima kasih</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['hukum', 'harus', 'ditegakkan', 'tanpa', 'tebang', 'pilih']</t>
+          <t>['terima', 'kasih']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['terima', 'kasih']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['hukum', 'ditegakkan', 'tebang', 'pilih']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['hukum', 'tegak', 'tebang', 'pilih']</t>
+          <t>['terima', 'kasih']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih']</t>
         </is>
       </c>
     </row>
@@ -3423,34 +3838,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>21453</v>
+        <v>31423</v>
       </c>
       <c r="C84" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>rt mengutip video operasi akal sehat kami pendukungmu bapak masih punya akal sehat dan ingin rakyat indone</t>
+          <t>hukum harus ditegakkan tanpa tebang pilih</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['rt', 'mengutip', 'video', 'operasi', 'akal', 'sehat', 'kami', 'pendukungmu', 'bapak', 'masih', 'punya', 'akal', 'sehat', 'dan', 'ingin', 'rakyat', 'indone']</t>
+          <t>['hukum', 'harus', 'ditegakkan', 'tanpa', 'tebang', 'pilih']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['hukum', 'harus', 'ditegakkan', 'tanpa', 'tebang', 'pilih']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['mengutip', 'video', 'operasi', 'akal', 'sehat', 'pendukungmu', 'akal', 'sehat', 'rakyat', 'indone']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['kutip', 'video', 'operasi', 'akal', 'sehat', 'dukung', 'akal', 'sehat', 'rakyat', 'indone']</t>
+          <t>['hukum', 'ditegakkan', 'tebang', 'pilih']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['hukum', 'tegak', 'tebang', 'pilih']</t>
         </is>
       </c>
     </row>
@@ -3459,34 +3879,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>21454</v>
+        <v>31424</v>
       </c>
       <c r="C85" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>silahkan bung cek jejak digital siapa yang tidak beretika dalam berpolitik saya membela rakyat dan bangsa saya it</t>
+          <t>rt mengutip video operasi akal sehat kami pendukungmu bapak masih punya akal sehat dan ingin rakyat indone</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['silahkan', 'bung', 'cek', 'jejak', 'digital', 'siapa', 'yang', 'tidak', 'beretika', 'dalam', 'berpolitik', 'saya', 'membela', 'rakyat', 'dan', 'bangsa', 'saya', 'it']</t>
+          <t>['rt', 'mengutip', 'video', 'operasi', 'akal', 'sehat', 'kami', 'pendukungmu', 'bapak', 'masih', 'punya', 'akal', 'sehat', 'dan', 'ingin', 'rakyat', 'indone']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'mengutip', 'video', 'operasi', 'akal', 'sehat', 'kami', 'pendukungmu', 'bapak', 'masih', 'punya', 'akal', 'sehat', 'dan', 'ingin', 'rakyat', 'indone']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['silahkan', 'cek', 'jejak', 'digital', 'beretika', 'berpolitik', 'membela', 'rakyat', 'bangsa', 'it']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['silah', 'cek', 'jejak', 'digital', 'etika', 'politik', 'bela', 'rakyat', 'bangsa', 'it']</t>
+          <t>['mengutip', 'video', 'operasi', 'akal', 'sehat', 'pendukungmu', 'akal', 'sehat', 'rakyat', 'indone']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['kutip', 'video', 'operasi', 'akal', 'sehat', 'dukung', 'akal', 'sehat', 'rakyat', 'indone']</t>
         </is>
       </c>
     </row>
@@ -3495,34 +3920,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>21455</v>
+        <v>31425</v>
       </c>
       <c r="C86" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>rakyat itu bagaimana pemimpinnya</t>
+          <t>silahkan bung cek jejak digital siapa yang tidak beretika dalam berpolitik saya membela rakyat dan bangsa saya it</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['rakyat', 'itu', 'bagaimana', 'pemimpinnya']</t>
+          <t>['silahkan', 'bung', 'cek', 'jejak', 'digital', 'siapa', 'yang', 'tidak', 'beretika', 'dalam', 'berpolitik', 'saya', 'membela', 'rakyat', 'dan', 'bangsa', 'saya', 'it']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['silakan', 'bung', 'cek', 'jejak', 'digital', 'siapa', 'yang', 'tidak', 'beretika', 'dalam', 'berpolitik', 'saya', 'membela', 'rakyat', 'dan', 'bangsa', 'saya', 'it']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['rakyat', 'pemimpinnya']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['rakyat', 'pimpin']</t>
+          <t>['silakan', 'cek', 'jejak', 'digital', 'beretika', 'berpolitik', 'membela', 'rakyat', 'bangsa', 'it']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['sila', 'cek', 'jejak', 'digital', 'etika', 'politik', 'bela', 'rakyat', 'bangsa', 'it']</t>
         </is>
       </c>
     </row>
@@ -3531,34 +3961,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>21456</v>
+        <v>31426</v>
       </c>
       <c r="C87" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>terima kasih salam hormat untuk keluarga</t>
+          <t>rakyat itu bagaimana pemimpinnya</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'salam', 'hormat', 'untuk', 'keluarga']</t>
+          <t>['rakyat', 'itu', 'bagaimana', 'pemimpinnya']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rakyat', 'itu', 'bagaimana', 'pemimpinnya']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'salam', 'hormat', 'keluarga']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'salam', 'hormat', 'keluarga']</t>
+          <t>['rakyat', 'pemimpinnya']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['rakyat', 'pimpin']</t>
         </is>
       </c>
     </row>
@@ -3567,34 +4002,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>21457</v>
+        <v>31427</v>
       </c>
       <c r="C88" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt jangan follback pak sebab saya sebab saya ikhlas bantu pemenangan bapak bangga saya di pandang oleh bapak </t>
+          <t>terima kasih salam hormat untuk keluarga</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['rt', 'jangan', 'follback', 'pak', 'sebab', 'saya', 'sebab', 'saya', 'ikhlas', 'bantu', 'pemenangan', 'bapak', 'bangga', 'saya', 'di', 'pandang', 'oleh', 'bapak']</t>
+          <t>['terima', 'kasih', 'salam', 'hormat', 'untuk', 'keluarga']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
+          <t>['terima', 'kasih', 'salam', 'hormat', 'untuk', 'keluarga']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['follback', 'ikhlas', 'bantu', 'pemenangan', 'bangga', 'pandang']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['follback', 'ikhlas', 'bantu', 'menang', 'bangga', 'pandang']</t>
+          <t>['terima', 'kasih', 'salam', 'hormat', 'keluarga']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'salam', 'hormat', 'keluarga']</t>
         </is>
       </c>
     </row>
@@ -3603,34 +4043,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>21458</v>
+        <v>31428</v>
       </c>
       <c r="C89" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>kita kawal bersama pemilu jangan sampai demokrasi dinodai oleh para komprador</t>
+          <t xml:space="preserve">rt jangan follback pak sebab saya sebab saya ikhlas bantu pemenangan bapak bangga saya di pandang oleh bapak </t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['kita', 'kawal', 'bersama', 'pemilu', 'jangan', 'sampai', 'demokrasi', 'dinodai', 'oleh', 'para', 'komprador']</t>
+          <t>['rt', 'jangan', 'follback', 'pak', 'sebab', 'saya', 'sebab', 'saya', 'ikhlas', 'bantu', 'pemenangan', 'bapak', 'bangga', 'saya', 'di', 'pandang', 'oleh', 'bapak']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'jangan', 'ikuti', 'pak', 'sebab', 'saya', 'sebab', 'saya', 'ikhlas', 'bantu', 'pemenangan', 'bapak', 'bangga', 'saya', 'di', 'pandang', 'oleh', 'bapak']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['kawal', 'pemilu', 'demokrasi', 'dinodai', 'komprador']</t>
+          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['kawal', 'milu', 'demokrasi', 'noda', 'komprador']</t>
+          <t>['ikuti', 'ikhlas', 'bantu', 'pemenangan', 'bangga', 'pandang']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['ikut', 'ikhlas', 'bantu', 'menang', 'bangga', 'pandang']</t>
         </is>
       </c>
     </row>
@@ -3639,34 +4084,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>21459</v>
+        <v>31429</v>
       </c>
       <c r="C90" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>luar biasa lombok ntb</t>
+          <t>kita kawal bersama pemilu jangan sampai demokrasi dinodai oleh para komprador</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['luar', 'biasa', 'lombok', 'ntb']</t>
+          <t>['kita', 'kawal', 'bersama', 'pemilu', 'jangan', 'sampai', 'demokrasi', 'dinodai', 'oleh', 'para', 'komprador']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['kita', 'kawal', 'bersama', 'pemilihan, umum', 'jangan', 'sampai', 'demokrasi', 'dinodai', 'oleh', 'para', 'komprador']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['lombok', 'ntb']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['lombok', 'ntb']</t>
+          <t>['kawal', 'pemilihan, umum', 'demokrasi', 'dinodai', 'komprador']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['kawal', 'pilih umum', 'demokrasi', 'noda', 'komprador']</t>
         </is>
       </c>
     </row>
@@ -3675,34 +4125,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>21460</v>
+        <v>31430</v>
       </c>
       <c r="C91" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>alhamdulillah pempek dan secangkir kopi</t>
+          <t>luar biasa lombok ntb</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'pempek', 'dan', 'secangkir', 'kopi']</t>
+          <t>['luar', 'biasa', 'lombok', 'ntb']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['luar', 'biasa', 'lombok', 'ntb']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'pempek', 'secangkir', 'kopi']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'pempek', 'cangkir', 'kopi']</t>
+          <t>['lombok', 'ntb']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['lombok', 'ntb']</t>
         </is>
       </c>
     </row>
@@ -3711,34 +4166,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21461</v>
+        <v>31431</v>
       </c>
       <c r="C92" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>jakarta palembang solo semakin menguatkan bahwa rakyat menghendaki adanya sebuah perubahan menginginkan keadilan</t>
+          <t>alhamdulillah pempek dan secangkir kopi</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['jakarta', 'palembang', 'solo', 'semakin', 'menguatkan', 'bahwa', 'rakyat', 'menghendaki', 'adanya', 'sebuah', 'perubahan', 'menginginkan', 'keadilan']</t>
+          <t>['alhamdulillah', 'pempek', 'dan', 'secangkir', 'kopi']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['alhamdulillah', 'pempek', 'dan', 'secangkir', 'kopi']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['jakarta', 'palembang', 'solo', 'menguatkan', 'rakyat', 'perubahan', 'keadilan']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['jakarta', 'palembang', 'solo', 'kuat', 'rakyat', 'ubah', 'adil']</t>
+          <t>['alhamdulillah', 'pempek', 'secangkir', 'kopi']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'pempek', 'cangkir', 'kopi']</t>
         </is>
       </c>
     </row>
@@ -3747,34 +4207,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21462</v>
+        <v>31432</v>
       </c>
       <c r="C93" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>doa dan semangat saya selalu untuk bung novel baswedan maju terus pantang menyerah</t>
+          <t>jakarta palembang solo semakin menguatkan bahwa rakyat menghendaki adanya sebuah perubahan menginginkan keadilan</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['doa', 'dan', 'semangat', 'saya', 'selalu', 'untuk', 'bung', 'novel', 'baswedan', 'maju', 'terus', 'pantang', 'menyerah']</t>
+          <t>['jakarta', 'palembang', 'solo', 'semakin', 'menguatkan', 'bahwa', 'rakyat', 'menghendaki', 'adanya', 'sebuah', 'perubahan', 'menginginkan', 'keadilan']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['jakarta', 'palembang', 'solo', 'semakin', 'menguatkan', 'bahwa', 'rakyat', 'menghendaki', 'adanya', 'sebuah', 'perubahan', 'menginginkan', 'keadilan']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>['doa', 'semangat', 'novel', 'baswedan', 'maju', 'pantang', 'menyerah']</t>
-        </is>
-      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['doa', 'semangat', 'novel', 'baswedan', 'maju', 'pantang', 'serah']</t>
+          <t>['jakarta', 'palembang', 'solo', 'menguatkan', 'rakyat', 'perubahan', 'keadilan']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['jakarta', 'palembang', 'solo', 'kuat', 'rakyat', 'ubah', 'adil']</t>
         </is>
       </c>
     </row>
@@ -3783,34 +4248,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21463</v>
+        <v>31433</v>
       </c>
       <c r="C94" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>apa yang dilakukan para leluhur kita dimasa lampau jangan sampai dilupakan yang terbaik dari mereka telah kita ras</t>
+          <t>doa dan semangat saya selalu untuk bung novel baswedan maju terus pantang menyerah</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['apa', 'yang', 'dilakukan', 'para', 'leluhur', 'kita', 'dimasa', 'lampau', 'jangan', 'sampai', 'dilupakan', 'yang', 'terbaik', 'dari', 'mereka', 'telah', 'kita', 'ras']</t>
+          <t>['doa', 'dan', 'semangat', 'saya', 'selalu', 'untuk', 'bung', 'novel', 'baswedan', 'maju', 'terus', 'pantang', 'menyerah']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['doa', 'dan', 'semangat', 'saya', 'selalu', 'untuk', 'bung', 'novel', 'baswedan', 'maju', 'terus', 'pantang', 'menyerah']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['leluhur', 'dimasa', 'lampau', 'dilupakan', 'terbaik', 'ras']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['leluhur', 'masa', 'lampau', 'lupa', 'baik', 'ras']</t>
+          <t>['doa', 'semangat', 'novel', 'baswedan', 'maju', 'pantang', 'menyerah']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['doa', 'semangat', 'novel', 'baswedan', 'maju', 'pantang', 'serah']</t>
         </is>
       </c>
     </row>
@@ -3819,34 +4289,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21464</v>
+        <v>31434</v>
       </c>
       <c r="C95" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>rt lari pagi menuju pantai lovina sebelah utara bali bali ini kaya akan keindahan alamnya sayang jika potensipotensi ini tida</t>
+          <t>apa yang dilakukan para leluhur kita dimasa lampau jangan sampai dilupakan yang terbaik dari mereka telah kita ras</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['rt', 'lari', 'pagi', 'menuju', 'pantai', 'lovina', 'sebelah', 'utara', 'bali', 'bali', 'ini', 'kaya', 'akan', 'keindahan', 'alamnya', 'sayang', 'jika', 'potensipotensi', 'ini', 'tida']</t>
+          <t>['apa', 'yang', 'dilakukan', 'para', 'leluhur', 'kita', 'dimasa', 'lampau', 'jangan', 'sampai', 'dilupakan', 'yang', 'terbaik', 'dari', 'mereka', 'telah', 'kita', 'ras']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['apa', 'yang', 'dilakukan', 'para', 'leluhur', 'kita', 'di, masa', 'lampau', 'jangan', 'sampai', 'dilupakan', 'yang', 'terbaik', 'dari', 'mereka', 'telah', 'kita', 'ras']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['lari', 'pagi', 'pantai', 'lovina', 'sebelah', 'utara', 'bali', 'bali', 'kaya', 'keindahan', 'alamnya', 'sayang', 'potensipotensi', 'tida']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['lari', 'pagi', 'pantai', 'lovina', 'belah', 'utara', 'bal', 'bal', 'kaya', 'indah', 'alam', 'sayang', 'potensipotensi', 'tida']</t>
+          <t>['leluhur', 'di, masa', 'lampau', 'dilupakan', 'terbaik', 'ras']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['leluhur', 'di masa', 'lampau', 'lupa', 'baik', 'ras']</t>
         </is>
       </c>
     </row>
@@ -3855,34 +4330,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21465</v>
+        <v>31435</v>
       </c>
       <c r="C96" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">mohon maaf kepada warga dki jakarta yang terganggu karena aktivitas saya tadi pagi hingga siang terima kasih dan </t>
+          <t>rt lari pagi menuju pantai lovina sebelah utara bali bali ini kaya akan keindahan alamnya sayang jika potensipotensi ini tida</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['mohon', 'maaf', 'kepada', 'warga', 'dki', 'jakarta', 'yang', 'terganggu', 'karena', 'aktivitas', 'saya', 'tadi', 'pagi', 'hingga', 'siang', 'terima', 'kasih', 'dan']</t>
+          <t>['rt', 'lari', 'pagi', 'menuju', 'pantai', 'lovina', 'sebelah', 'utara', 'bali', 'bali', 'ini', 'kaya', 'akan', 'keindahan', 'alamnya', 'sayang', 'jika', 'potensipotensi', 'ini', 'tida']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'lari', 'pagi', 'menuju', 'pantai', 'lovina', 'sebelah', 'utara', 'bali', 'bali', 'ini', 'kayak', 'akan', 'keindahan', 'alamnya', 'sayang', 'jika', 'potensipotensi', 'ini', 'tidak']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['mohon', 'maaf', 'warga', 'dki', 'jakarta', 'terganggu', 'aktivitas', 'pagi', 'siang', 'terima', 'kasih']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['mohon', 'maaf', 'warga', 'dki', 'jakarta', 'ganggu', 'aktivitas', 'pagi', 'siang', 'terima', 'kasih']</t>
+          <t>['lari', 'pagi', 'pantai', 'lovina', 'sebelah', 'utara', 'bali', 'bali', 'kayak', 'keindahan', 'alamnya', 'sayang', 'potensipotensi']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['lari', 'pagi', 'pantai', 'lovina', 'belah', 'utara', 'bal', 'bal', 'kayak', 'indah', 'alam', 'sayang', 'potensipotensi']</t>
         </is>
       </c>
     </row>
@@ -3891,34 +4371,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>21466</v>
+        <v>31436</v>
       </c>
       <c r="C97" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>tidak dapat kasih tangan kepada semua tetapi saya yakin kita telah bersepakat bahwa kita akan bersamasama mewujudk</t>
+          <t xml:space="preserve">mohon maaf kepada warga dki jakarta yang terganggu karena aktivitas saya tadi pagi hingga siang terima kasih dan </t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['tidak', 'dapat', 'kasih', 'tangan', 'kepada', 'semua', 'tetapi', 'saya', 'yakin', 'kita', 'telah', 'bersepakat', 'bahwa', 'kita', 'akan', 'bersamasama', 'mewujudk']</t>
+          <t>['mohon', 'maaf', 'kepada', 'warga', 'dki', 'jakarta', 'yang', 'terganggu', 'karena', 'aktivitas', 'saya', 'tadi', 'pagi', 'hingga', 'siang', 'terima', 'kasih', 'dan']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['mohon', 'maaf', 'kepada', 'warga', 'daerah, khusus, ibukota', 'jakarta', 'yang', 'terganggu', 'karena', 'aktivitas', 'saya', 'tadi', 'pagi', 'hingga', 'siang', 'terima', 'kasih', 'dan']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['kasih', 'tangan', 'bersepakat', 'bersamasama', 'mewujudk']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['kasih', 'tangan', 'sepakat', 'bersamasama', 'mewujudk']</t>
+          <t>['mohon', 'maaf', 'warga', 'daerah, khusus, ibukota', 'jakarta', 'terganggu', 'aktivitas', 'pagi', 'siang', 'terima', 'kasih']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['mohon', 'maaf', 'warga', 'daerah khusus ibukota', 'jakarta', 'ganggu', 'aktivitas', 'pagi', 'siang', 'terima', 'kasih']</t>
         </is>
       </c>
     </row>
@@ -3927,34 +4412,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21467</v>
+        <v>31437</v>
       </c>
       <c r="C98" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>terima kasih kepada para tokoh agama para habaib para ulama para relawan para sahabat yang telah hadir pada har</t>
+          <t>tidak dapat kasih tangan kepada semua tetapi saya yakin kita telah bersepakat bahwa kita akan bersamasama mewujudk</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'kepada', 'para', 'tokoh', 'agama', 'para', 'habaib', 'para', 'ulama', 'para', 'relawan', 'para', 'sahabat', 'yang', 'telah', 'hadir', 'pada', 'har']</t>
+          <t>['tidak', 'dapat', 'kasih', 'tangan', 'kepada', 'semua', 'tetapi', 'saya', 'yakin', 'kita', 'telah', 'bersepakat', 'bahwa', 'kita', 'akan', 'bersamasama', 'mewujudk']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
+          <t>['tidak', 'dapat', 'kasih', 'tangan', 'kepada', 'semua', 'tetapi', 'saya', 'yakin', 'kita', 'telah', 'bersepakat', 'bahwa', 'kita', 'akan', 'bersamasama', 'mewujudk']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'tokoh', 'agama', 'habaib', 'ulama', 'relawan', 'sahabat', 'hadir', 'har']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'tokoh', 'agama', 'habaib', 'ulama', 'rawan', 'sahabat', 'hadir', 'har']</t>
+          <t>['kasih', 'tangan', 'bersepakat', 'bersamasama', 'mewujudk']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['kasih', 'tangan', 'sepakat', 'bersamasama', 'mewujudk']</t>
         </is>
       </c>
     </row>
@@ -3963,34 +4453,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>21468</v>
+        <v>31438</v>
       </c>
       <c r="C99" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>semoga allah swt melapangkan kuburnya dan menjauhkan dari api neraka aamiin</t>
+          <t>terima kasih kepada para tokoh agama para habaib para ulama para relawan para sahabat yang telah hadir pada har</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['semoga', 'allah', 'swt', 'melapangkan', 'kuburnya', 'dan', 'menjauhkan', 'dari', 'api', 'neraka', 'aamiin']</t>
+          <t>['terima', 'kasih', 'kepada', 'para', 'tokoh', 'agama', 'para', 'habaib', 'para', 'ulama', 'para', 'relawan', 'para', 'sahabat', 'yang', 'telah', 'hadir', 'pada', 'har']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['terima', 'kasih', 'kepada', 'para', 'tokoh', 'agama', 'para', 'habib', 'para', 'ulama', 'para', 'relawan', 'para', 'sahabat', 'yang', 'telah', 'hadir', 'pada', 'har']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['semoga', 'allah', 'swt', 'melapangkan', 'kuburnya', 'menjauhkan', 'api', 'neraka', 'aamiin']</t>
+          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['moga', 'allah', 'swt', 'lapang', 'kubur', 'jauh', 'api', 'neraka', 'aamiin']</t>
+          <t>['terima', 'kasih', 'tokoh', 'agama', 'habib', 'ulama', 'relawan', 'sahabat', 'hadir', 'har']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'tokoh', 'agama', 'habib', 'ulama', 'rawan', 'sahabat', 'hadir', 'har']</t>
         </is>
       </c>
     </row>
@@ -3999,34 +4494,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>21469</v>
+        <v>31439</v>
       </c>
       <c r="C100" t="n">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt jangan polbek saya pak karena menit setelah bapak dilantik jadi ri saya akan jadi oposisi dan ga akan segan </t>
+          <t>semoga allah swt melapangkan kuburnya dan menjauhkan dari api neraka aamiin</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['rt', 'jangan', 'polbek', 'saya', 'pak', 'karena', 'menit', 'setelah', 'bapak', 'dilantik', 'jadi', 'ri', 'saya', 'akan', 'jadi', 'oposisi', 'dan', 'ga', 'akan', 'segan']</t>
+          <t>['semoga', 'allah', 'swt', 'melapangkan', 'kuburnya', 'dan', 'menjauhkan', 'dari', 'api', 'neraka', 'aamiin']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>['semoga', 'allah', 'subhanahu, wa, taala', 'melapangkan', 'kuburnya', 'dan', 'menjauhkan', 'dari', 'api', 'neraka', 'amin']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['polbek', 'menit', 'dilantik', 'ri', 'oposisi', 'segan']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['polbek', 'menit', 'lantik', 'ri', 'oposisi', 'segan']</t>
+          <t>['semoga', 'allah', 'subhanahu, wa, taala', 'melapangkan', 'kuburnya', 'menjauhkan', 'api', 'neraka', 'amin']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['moga', 'allah', 'subhanahu wa taala', 'lapang', 'kubur', 'jauh', 'api', 'neraka', 'amin']</t>
         </is>
       </c>
     </row>
